--- a/WBS_2025_12_03(마지막_작업-황동주-조해성).xlsx
+++ b/WBS_2025_12_03(마지막_작업-황동주-조해성).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\memberInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821FDB40-E7BE-4533-BEAF-F4C193F5A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42ED41-13C6-42B7-80C2-36ADC188E177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,16 +248,6 @@
   </si>
   <si>
     <t>common.css</t>
-  </si>
-  <si>
-    <t>- PC(1024px) / 태블릿 / 모바일(768px) 반응형 헤더 메뉴
-- 왼쪽 로고 클릭 시, 홈으로 이동
-- 중앙의 메뉴(자전거 구매, 자전거 대여, 여행지 추천) 버튼 클릭 시, 해당 페이지로 이동
-- 오른쪽 아이콘(장바구니, 고객센터, 로그인, 마이페이지) 클릭 시, 해당 페이지로 이동
-- '자전거 구매' 카테고리의 서브메뉴 (PC hover, 모바일 toggle)
-- 로그인 상태에 따른 UI 렌더링
-- 챗봇 버튼 토글
-- 스크롤 영역 DIM 처리 (모바일)</t>
   </si>
   <si>
     <t>/products/mountain
@@ -2563,6 +2553,17 @@
 - 스프링에서 이메일 전송을 위한 정보2(properties setting)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>- PC(1024px) / 태블릿 / 모바일(768px) 반응형 헤더 메뉴
+- 왼쪽 로고 클릭 시, 홈으로 이동
+- 중앙의 메뉴(자전거 구매, 자전거 대여, 여행지 추천) 버튼 클릭 시, 해당 페이지로 이동
+- 오른쪽 아이콘(장바구니, 고객센터, 로그인, 마이페이지) 클릭 시, 해당 페이지로 이동
+- '자전거 구매' 카테고리의 서브메뉴 (PC hover, 모바일 toggle)
+- 로그인 상태에 따른 UI 렌더링
+- 챗봇 버튼 토글
+- 스크롤 영역 DIM 처리 (모바일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3676,70 +3677,82 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3748,14 +3761,92 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3763,97 +3854,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3866,6 +3870,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3898,141 +3908,132 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
@@ -4312,7 +4313,9 @@
   </sheetPr>
   <dimension ref="A1:CR1166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.140625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4494,15 +4497,15 @@
       <c r="CR2" s="40"/>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
       <c r="F3" s="9"/>
       <c r="G3" s="51"/>
       <c r="H3" s="10"/>
@@ -4596,15 +4599,15 @@
       <c r="CR3" s="10"/>
     </row>
     <row r="4" spans="1:96" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="34"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
@@ -4655,134 +4658,134 @@
       <c r="BA4" s="1"/>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113" t="s">
+      <c r="A5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="113" t="s">
+      <c r="F5" s="213"/>
+      <c r="G5" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="118" t="s">
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="118" t="s">
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="207"/>
+      <c r="AT5" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="119"/>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="119"/>
-      <c r="BH5" s="119"/>
-      <c r="BI5" s="119"/>
-      <c r="BJ5" s="119"/>
-      <c r="BK5" s="119"/>
-      <c r="BL5" s="119"/>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="119"/>
-      <c r="BP5" s="119"/>
-      <c r="BQ5" s="119"/>
-      <c r="BR5" s="119"/>
-      <c r="BS5" s="119"/>
-      <c r="BT5" s="119"/>
-      <c r="BU5" s="119"/>
-      <c r="BV5" s="119"/>
-      <c r="BW5" s="119"/>
-      <c r="BX5" s="119" t="s">
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="206"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="206"/>
+      <c r="BE5" s="206"/>
+      <c r="BF5" s="206"/>
+      <c r="BG5" s="206"/>
+      <c r="BH5" s="206"/>
+      <c r="BI5" s="206"/>
+      <c r="BJ5" s="206"/>
+      <c r="BK5" s="206"/>
+      <c r="BL5" s="206"/>
+      <c r="BM5" s="206"/>
+      <c r="BN5" s="206"/>
+      <c r="BO5" s="206"/>
+      <c r="BP5" s="206"/>
+      <c r="BQ5" s="206"/>
+      <c r="BR5" s="206"/>
+      <c r="BS5" s="206"/>
+      <c r="BT5" s="206"/>
+      <c r="BU5" s="206"/>
+      <c r="BV5" s="206"/>
+      <c r="BW5" s="206"/>
+      <c r="BX5" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="BY5" s="119"/>
-      <c r="BZ5" s="119"/>
-      <c r="CA5" s="119"/>
-      <c r="CB5" s="119"/>
-      <c r="CC5" s="119"/>
-      <c r="CD5" s="119"/>
-      <c r="CE5" s="119"/>
-      <c r="CF5" s="119"/>
-      <c r="CG5" s="119"/>
-      <c r="CH5" s="119"/>
-      <c r="CI5" s="119"/>
-      <c r="CJ5" s="119"/>
-      <c r="CK5" s="119"/>
-      <c r="CL5" s="119"/>
-      <c r="CM5" s="119"/>
-      <c r="CN5" s="119"/>
-      <c r="CO5" s="119"/>
-      <c r="CP5" s="119"/>
-      <c r="CQ5" s="119"/>
-      <c r="CR5" s="120"/>
+      <c r="BY5" s="206"/>
+      <c r="BZ5" s="206"/>
+      <c r="CA5" s="206"/>
+      <c r="CB5" s="206"/>
+      <c r="CC5" s="206"/>
+      <c r="CD5" s="206"/>
+      <c r="CE5" s="206"/>
+      <c r="CF5" s="206"/>
+      <c r="CG5" s="206"/>
+      <c r="CH5" s="206"/>
+      <c r="CI5" s="206"/>
+      <c r="CJ5" s="206"/>
+      <c r="CK5" s="206"/>
+      <c r="CL5" s="206"/>
+      <c r="CM5" s="206"/>
+      <c r="CN5" s="206"/>
+      <c r="CO5" s="206"/>
+      <c r="CP5" s="206"/>
+      <c r="CQ5" s="206"/>
+      <c r="CR5" s="207"/>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="112"/>
+      <c r="A6" s="222"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="216"/>
       <c r="O6" s="37" t="s">
         <v>12</v>
       </c>
@@ -5031,14 +5034,14 @@
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
       <c r="I7" s="36" t="s">
         <v>43</v>
       </c>
@@ -5304,16 +5307,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="121" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+    <row r="8" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="141" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="123"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
       <c r="E9" s="14"/>
@@ -5410,10 +5413,10 @@
       <c r="CR9" s="29"/>
     </row>
     <row r="10" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="22"/>
       <c r="D10" s="18"/>
       <c r="E10" s="16"/>
@@ -5510,10 +5513,10 @@
       <c r="CR10" s="29"/>
     </row>
     <row r="11" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="22"/>
       <c r="D11" s="18" t="s">
         <v>60</v>
@@ -5612,10 +5615,10 @@
       <c r="CR11" s="29"/>
     </row>
     <row r="12" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="22"/>
       <c r="D12" s="17" t="s">
         <v>62</v>
@@ -5714,10 +5717,10 @@
       <c r="CR12" s="29"/>
     </row>
     <row r="13" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="123"/>
+      <c r="B13" s="205"/>
       <c r="C13" s="22"/>
       <c r="D13" s="18"/>
       <c r="E13" s="16"/>
@@ -5814,10 +5817,10 @@
       <c r="CR13" s="29"/>
     </row>
     <row r="14" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="123"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="22"/>
       <c r="D14" s="18"/>
       <c r="E14" s="16"/>
@@ -5914,10 +5917,10 @@
       <c r="CR14" s="29"/>
     </row>
     <row r="15" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="123"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="22"/>
       <c r="D15" s="18"/>
       <c r="E15" s="16"/>
@@ -6014,10 +6017,10 @@
       <c r="CR15" s="29"/>
     </row>
     <row r="16" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="123"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="22"/>
       <c r="D16" s="18" t="s">
         <v>62</v>
@@ -6116,10 +6119,10 @@
       <c r="CR16" s="29"/>
     </row>
     <row r="17" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="123"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="22"/>
       <c r="D17" s="18" t="s">
         <v>62</v>
@@ -6218,10 +6221,10 @@
       <c r="CR17" s="29"/>
     </row>
     <row r="18" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="123"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
       <c r="E18" s="16"/>
@@ -6318,10 +6321,10 @@
       <c r="CR18" s="29"/>
     </row>
     <row r="19" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="123"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
       <c r="E19" s="16"/>
@@ -6418,10 +6421,10 @@
       <c r="CR19" s="29"/>
     </row>
     <row r="20" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="123"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="22"/>
       <c r="D20" s="18" t="s">
         <v>71</v>
@@ -6519,16 +6522,16 @@
       <c r="CQ20" s="29"/>
       <c r="CR20" s="29"/>
     </row>
-    <row r="21" spans="1:96" s="121" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="141" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:96" ht="148.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="125"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="18" t="s">
         <v>74</v>
       </c>
@@ -6542,28 +6545,28 @@
         <v>75</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="J22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="M22" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="M22" s="85" t="s">
+      <c r="N22" s="85" t="s">
         <v>82</v>
-      </c>
-      <c r="N22" s="85" t="s">
-        <v>83</v>
       </c>
       <c r="O22" s="74"/>
       <c r="P22" s="63"/>
@@ -6649,25 +6652,25 @@
       <c r="CR22" s="67"/>
     </row>
     <row r="23" spans="1:96" ht="135" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="130" t="s">
-        <v>84</v>
+      <c r="A23" s="132"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="162" t="s">
+        <v>83</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="G23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>88</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="16"/>
@@ -6759,28 +6762,28 @@
       <c r="CR23" s="67"/>
     </row>
     <row r="24" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="200" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="177" t="s">
+      <c r="A24" s="132"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" s="142" t="s">
         <v>407</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="G24" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="G24" s="179" t="s">
+      <c r="H24" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="H24" s="180" t="s">
-        <v>410</v>
-      </c>
       <c r="I24" s="94"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="182"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="106"/>
       <c r="M24" s="85"/>
       <c r="N24" s="85"/>
       <c r="O24" s="74"/>
@@ -6844,7 +6847,7 @@
       <c r="BU24" s="67"/>
       <c r="BV24" s="67"/>
       <c r="BW24" s="67"/>
-      <c r="BX24" s="208"/>
+      <c r="BX24" s="117"/>
       <c r="BY24" s="67"/>
       <c r="BZ24" s="67"/>
       <c r="CA24" s="67"/>
@@ -6867,22 +6870,22 @@
       <c r="CR24" s="67"/>
     </row>
     <row r="25" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="177" t="s">
+      <c r="A25" s="132"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="143"/>
+      <c r="G25" s="104" t="s">
         <v>411</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="179" t="s">
-        <v>412</v>
-      </c>
-      <c r="H25" s="184"/>
+      <c r="H25" s="145"/>
       <c r="I25" s="94"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="182"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="106"/>
       <c r="M25" s="85"/>
       <c r="N25" s="85"/>
       <c r="O25" s="74"/>
@@ -6946,7 +6949,7 @@
       <c r="BU25" s="67"/>
       <c r="BV25" s="67"/>
       <c r="BW25" s="67"/>
-      <c r="BX25" s="208"/>
+      <c r="BX25" s="117"/>
       <c r="BY25" s="67"/>
       <c r="BZ25" s="67"/>
       <c r="CA25" s="67"/>
@@ -6969,22 +6972,22 @@
       <c r="CR25" s="67"/>
     </row>
     <row r="26" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="177" t="s">
+      <c r="A26" s="132"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="103" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="143"/>
+      <c r="G26" s="104" t="s">
         <v>413</v>
       </c>
-      <c r="F26" s="183"/>
-      <c r="G26" s="179" t="s">
-        <v>414</v>
-      </c>
-      <c r="H26" s="184"/>
+      <c r="H26" s="145"/>
       <c r="I26" s="94"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="182"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="106"/>
       <c r="M26" s="85"/>
       <c r="N26" s="85"/>
       <c r="O26" s="74"/>
@@ -7048,7 +7051,7 @@
       <c r="BU26" s="67"/>
       <c r="BV26" s="67"/>
       <c r="BW26" s="67"/>
-      <c r="BX26" s="208"/>
+      <c r="BX26" s="117"/>
       <c r="BY26" s="67"/>
       <c r="BZ26" s="67"/>
       <c r="CA26" s="67"/>
@@ -7071,22 +7074,22 @@
       <c r="CR26" s="67"/>
     </row>
     <row r="27" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="177" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="143"/>
+      <c r="G27" s="104" t="s">
         <v>415</v>
       </c>
-      <c r="F27" s="183"/>
-      <c r="G27" s="179" t="s">
-        <v>416</v>
-      </c>
-      <c r="H27" s="184"/>
+      <c r="H27" s="145"/>
       <c r="I27" s="94"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="182"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="85"/>
       <c r="N27" s="85"/>
       <c r="O27" s="74"/>
@@ -7150,7 +7153,7 @@
       <c r="BU27" s="67"/>
       <c r="BV27" s="67"/>
       <c r="BW27" s="67"/>
-      <c r="BX27" s="208"/>
+      <c r="BX27" s="117"/>
       <c r="BY27" s="67"/>
       <c r="BZ27" s="67"/>
       <c r="CA27" s="67"/>
@@ -7173,22 +7176,22 @@
       <c r="CR27" s="67"/>
     </row>
     <row r="28" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="185" t="s">
+      <c r="A28" s="132"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="107" t="s">
+        <v>416</v>
+      </c>
+      <c r="F28" s="143"/>
+      <c r="G28" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="183"/>
-      <c r="G28" s="186" t="s">
-        <v>418</v>
-      </c>
-      <c r="H28" s="187"/>
+      <c r="H28" s="146"/>
       <c r="I28" s="94"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="182"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="85"/>
       <c r="N28" s="85"/>
       <c r="O28" s="74"/>
@@ -7252,7 +7255,7 @@
       <c r="BU28" s="67"/>
       <c r="BV28" s="67"/>
       <c r="BW28" s="67"/>
-      <c r="BX28" s="208"/>
+      <c r="BX28" s="117"/>
       <c r="BY28" s="67"/>
       <c r="BZ28" s="67"/>
       <c r="CA28" s="67"/>
@@ -7275,26 +7278,26 @@
       <c r="CR28" s="67"/>
     </row>
     <row r="29" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="177" t="s">
+      <c r="A29" s="132"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="F29" s="147" t="s">
         <v>419</v>
       </c>
-      <c r="F29" s="188" t="s">
+      <c r="G29" s="104" t="s">
         <v>420</v>
       </c>
-      <c r="G29" s="179" t="s">
+      <c r="H29" s="110" t="s">
         <v>421</v>
       </c>
-      <c r="H29" s="189" t="s">
-        <v>422</v>
-      </c>
       <c r="I29" s="94"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="182"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="106"/>
       <c r="M29" s="85"/>
       <c r="N29" s="85"/>
       <c r="O29" s="74"/>
@@ -7359,7 +7362,7 @@
       <c r="BV29" s="67"/>
       <c r="BW29" s="67"/>
       <c r="BX29" s="67"/>
-      <c r="BY29" s="208"/>
+      <c r="BY29" s="117"/>
       <c r="BZ29" s="67"/>
       <c r="CA29" s="67"/>
       <c r="CB29" s="67"/>
@@ -7381,24 +7384,24 @@
       <c r="CR29" s="67"/>
     </row>
     <row r="30" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="177" t="s">
+      <c r="A30" s="132"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30" s="148"/>
+      <c r="G30" s="104" t="s">
         <v>423</v>
       </c>
-      <c r="F30" s="190"/>
-      <c r="G30" s="179" t="s">
+      <c r="H30" s="110" t="s">
         <v>424</v>
       </c>
-      <c r="H30" s="189" t="s">
-        <v>425</v>
-      </c>
       <c r="I30" s="94"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="182"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="106"/>
       <c r="M30" s="85"/>
       <c r="N30" s="85"/>
       <c r="O30" s="74"/>
@@ -7463,7 +7466,7 @@
       <c r="BV30" s="67"/>
       <c r="BW30" s="67"/>
       <c r="BX30" s="67"/>
-      <c r="BY30" s="208"/>
+      <c r="BY30" s="117"/>
       <c r="BZ30" s="67"/>
       <c r="CA30" s="67"/>
       <c r="CB30" s="67"/>
@@ -7485,24 +7488,24 @@
       <c r="CR30" s="67"/>
     </row>
     <row r="31" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="177" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="148"/>
+      <c r="G31" s="104" t="s">
         <v>426</v>
       </c>
-      <c r="F31" s="190"/>
-      <c r="G31" s="179" t="s">
-        <v>427</v>
-      </c>
-      <c r="H31" s="189" t="s">
-        <v>425</v>
+      <c r="H31" s="110" t="s">
+        <v>424</v>
       </c>
       <c r="I31" s="94"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="182"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
       <c r="M31" s="85"/>
       <c r="N31" s="85"/>
       <c r="O31" s="74"/>
@@ -7567,7 +7570,7 @@
       <c r="BV31" s="67"/>
       <c r="BW31" s="67"/>
       <c r="BX31" s="67"/>
-      <c r="BY31" s="208"/>
+      <c r="BY31" s="117"/>
       <c r="BZ31" s="67"/>
       <c r="CA31" s="67"/>
       <c r="CB31" s="67"/>
@@ -7589,24 +7592,24 @@
       <c r="CR31" s="67"/>
     </row>
     <row r="32" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="126"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="185" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="107" t="s">
+        <v>427</v>
+      </c>
+      <c r="F32" s="148"/>
+      <c r="G32" s="104" t="s">
         <v>428</v>
       </c>
-      <c r="F32" s="190"/>
-      <c r="G32" s="179" t="s">
-        <v>429</v>
-      </c>
-      <c r="H32" s="189" t="s">
-        <v>425</v>
+      <c r="H32" s="110" t="s">
+        <v>424</v>
       </c>
       <c r="I32" s="94"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="182"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
       <c r="M32" s="85"/>
       <c r="N32" s="85"/>
       <c r="O32" s="74"/>
@@ -7671,7 +7674,7 @@
       <c r="BV32" s="67"/>
       <c r="BW32" s="67"/>
       <c r="BX32" s="67"/>
-      <c r="BY32" s="208"/>
+      <c r="BY32" s="117"/>
       <c r="BZ32" s="67"/>
       <c r="CA32" s="67"/>
       <c r="CB32" s="67"/>
@@ -7693,24 +7696,24 @@
       <c r="CR32" s="67"/>
     </row>
     <row r="33" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="177" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="F33" s="148"/>
+      <c r="G33" s="104" t="s">
         <v>430</v>
       </c>
-      <c r="F33" s="190"/>
-      <c r="G33" s="179" t="s">
-        <v>431</v>
-      </c>
-      <c r="H33" s="188" t="s">
-        <v>422</v>
+      <c r="H33" s="147" t="s">
+        <v>421</v>
       </c>
       <c r="I33" s="94"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="182"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="106"/>
       <c r="M33" s="85"/>
       <c r="N33" s="85"/>
       <c r="O33" s="74"/>
@@ -7775,7 +7778,7 @@
       <c r="BV33" s="67"/>
       <c r="BW33" s="67"/>
       <c r="BX33" s="67"/>
-      <c r="BY33" s="208"/>
+      <c r="BY33" s="117"/>
       <c r="BZ33" s="67"/>
       <c r="CA33" s="67"/>
       <c r="CB33" s="67"/>
@@ -7797,22 +7800,22 @@
       <c r="CR33" s="67"/>
     </row>
     <row r="34" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="177" t="s">
+      <c r="A34" s="132"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="F34" s="149"/>
+      <c r="G34" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="F34" s="191"/>
-      <c r="G34" s="179" t="s">
-        <v>433</v>
-      </c>
-      <c r="H34" s="191"/>
+      <c r="H34" s="149"/>
       <c r="I34" s="94"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="182"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="106"/>
       <c r="M34" s="85"/>
       <c r="N34" s="85"/>
       <c r="O34" s="74"/>
@@ -7877,7 +7880,7 @@
       <c r="BV34" s="67"/>
       <c r="BW34" s="67"/>
       <c r="BX34" s="67"/>
-      <c r="BY34" s="208"/>
+      <c r="BY34" s="117"/>
       <c r="BZ34" s="67"/>
       <c r="CA34" s="67"/>
       <c r="CB34" s="67"/>
@@ -7899,26 +7902,26 @@
       <c r="CR34" s="67"/>
     </row>
     <row r="35" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="177" t="s">
+      <c r="A35" s="132"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="F35" s="142" t="s">
         <v>434</v>
       </c>
-      <c r="F35" s="178" t="s">
+      <c r="G35" s="104" t="s">
         <v>435</v>
       </c>
-      <c r="G35" s="179" t="s">
+      <c r="H35" s="151" t="s">
         <v>436</v>
       </c>
-      <c r="H35" s="192" t="s">
-        <v>437</v>
-      </c>
       <c r="I35" s="94"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="182"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="106"/>
       <c r="M35" s="85"/>
       <c r="N35" s="85"/>
       <c r="O35" s="74"/>
@@ -7983,8 +7986,8 @@
       <c r="BV35" s="67"/>
       <c r="BW35" s="67"/>
       <c r="BX35" s="67"/>
-      <c r="BY35" s="208"/>
-      <c r="BZ35" s="208"/>
+      <c r="BY35" s="117"/>
+      <c r="BZ35" s="117"/>
       <c r="CA35" s="67"/>
       <c r="CB35" s="67"/>
       <c r="CC35" s="67"/>
@@ -8005,22 +8008,22 @@
       <c r="CR35" s="67"/>
     </row>
     <row r="36" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="181" t="s">
+      <c r="A36" s="132"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="105" t="s">
+        <v>437</v>
+      </c>
+      <c r="F36" s="150"/>
+      <c r="G36" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="F36" s="194"/>
-      <c r="G36" s="179" t="s">
-        <v>439</v>
-      </c>
-      <c r="H36" s="195"/>
+      <c r="H36" s="152"/>
       <c r="I36" s="94"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="182"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="106"/>
       <c r="M36" s="85"/>
       <c r="N36" s="85"/>
       <c r="O36" s="74"/>
@@ -8085,8 +8088,8 @@
       <c r="BV36" s="67"/>
       <c r="BW36" s="67"/>
       <c r="BX36" s="67"/>
-      <c r="BY36" s="208"/>
-      <c r="BZ36" s="208"/>
+      <c r="BY36" s="117"/>
+      <c r="BZ36" s="117"/>
       <c r="CA36" s="67"/>
       <c r="CB36" s="67"/>
       <c r="CC36" s="67"/>
@@ -8107,26 +8110,26 @@
       <c r="CR36" s="67"/>
     </row>
     <row r="37" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="126"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="189" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="197" t="s">
+      <c r="A37" s="132"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="G37" s="108" t="s">
         <v>441</v>
       </c>
-      <c r="G37" s="186" t="s">
-        <v>442</v>
-      </c>
-      <c r="H37" s="179" t="s">
-        <v>422</v>
-      </c>
-      <c r="I37" s="196"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="199"/>
+      <c r="H37" s="104" t="s">
+        <v>421</v>
+      </c>
+      <c r="I37" s="111"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="113"/>
       <c r="M37" s="85"/>
       <c r="N37" s="85"/>
       <c r="O37" s="74"/>
@@ -8213,41 +8216,41 @@
       <c r="CR37" s="67"/>
     </row>
     <row r="38" spans="1:96" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="130" t="s">
-        <v>90</v>
+      <c r="A38" s="132"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="162" t="s">
+        <v>89</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="196" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="H38" s="194" t="s">
+        <v>338</v>
+      </c>
+      <c r="I38" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G38" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="137" t="s">
-        <v>339</v>
-      </c>
-      <c r="I38" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="16" t="s">
+      <c r="K38" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="K38" s="16" t="s">
-        <v>343</v>
-      </c>
       <c r="L38" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="M38" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="M38" s="85" t="s">
+      <c r="N38" s="85" t="s">
         <v>346</v>
-      </c>
-      <c r="N38" s="85" t="s">
-        <v>347</v>
       </c>
       <c r="O38" s="74"/>
       <c r="P38" s="63"/>
@@ -8333,33 +8336,33 @@
       <c r="CR38" s="67"/>
     </row>
     <row r="39" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="126"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="133"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="193"/>
       <c r="E39" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="135"/>
+        <v>90</v>
+      </c>
+      <c r="F39" s="170"/>
       <c r="G39" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="H39" s="135"/>
-      <c r="I39" s="133"/>
+        <v>335</v>
+      </c>
+      <c r="H39" s="170"/>
+      <c r="I39" s="193"/>
       <c r="J39" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L39" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M39" s="85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N39" s="85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O39" s="74"/>
       <c r="P39" s="63"/>
@@ -8445,33 +8448,33 @@
       <c r="CR39" s="67"/>
     </row>
     <row r="40" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="126"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="133"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="193"/>
       <c r="E40" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="135"/>
+        <v>91</v>
+      </c>
+      <c r="F40" s="170"/>
       <c r="G40" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="H40" s="135"/>
-      <c r="I40" s="133"/>
+        <v>336</v>
+      </c>
+      <c r="H40" s="170"/>
+      <c r="I40" s="193"/>
       <c r="J40" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K40" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="M40" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="M40" s="85" t="s">
+      <c r="N40" s="85" t="s">
         <v>346</v>
-      </c>
-      <c r="N40" s="85" t="s">
-        <v>347</v>
       </c>
       <c r="O40" s="74"/>
       <c r="P40" s="63"/>
@@ -8557,33 +8560,33 @@
       <c r="CR40" s="67"/>
     </row>
     <row r="41" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="126"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="132"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="136"/>
+        <v>92</v>
+      </c>
+      <c r="F41" s="171"/>
       <c r="G41" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="H41" s="136"/>
-      <c r="I41" s="132"/>
+        <v>337</v>
+      </c>
+      <c r="H41" s="171"/>
+      <c r="I41" s="165"/>
       <c r="J41" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L41" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M41" s="85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N41" s="85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O41" s="74"/>
       <c r="P41" s="63"/>
@@ -8669,26 +8672,26 @@
       <c r="CR41" s="67"/>
     </row>
     <row r="42" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="130" t="s">
-        <v>90</v>
+      <c r="A42" s="132"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="162" t="s">
+        <v>89</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="137" t="s">
-        <v>361</v>
+        <v>124</v>
+      </c>
+      <c r="F42" s="194" t="s">
+        <v>360</v>
       </c>
       <c r="G42" s="95" t="s">
-        <v>351</v>
-      </c>
-      <c r="H42" s="134" t="s">
-        <v>355</v>
-      </c>
-      <c r="I42" s="130" t="s">
-        <v>78</v>
+        <v>350</v>
+      </c>
+      <c r="H42" s="196" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42" s="162" t="s">
+        <v>77</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
@@ -8779,19 +8782,19 @@
       <c r="CR42" s="67"/>
     </row>
     <row r="43" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="126"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="133"/>
+      <c r="A43" s="132"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="193"/>
       <c r="E43" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="135"/>
+        <v>95</v>
+      </c>
+      <c r="F43" s="170"/>
       <c r="G43" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="H43" s="135"/>
-      <c r="I43" s="133"/>
+        <v>351</v>
+      </c>
+      <c r="H43" s="170"/>
+      <c r="I43" s="193"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="59"/>
@@ -8881,19 +8884,19 @@
       <c r="CR43" s="67"/>
     </row>
     <row r="44" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
+      <c r="A44" s="132"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="135"/>
+        <v>94</v>
+      </c>
+      <c r="F44" s="170"/>
       <c r="G44" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="H44" s="135"/>
-      <c r="I44" s="133"/>
+        <v>349</v>
+      </c>
+      <c r="H44" s="170"/>
+      <c r="I44" s="193"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="59"/>
@@ -8983,19 +8986,19 @@
       <c r="CR44" s="67"/>
     </row>
     <row r="45" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="135"/>
+        <v>96</v>
+      </c>
+      <c r="F45" s="170"/>
       <c r="G45" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="H45" s="135"/>
-      <c r="I45" s="133"/>
+        <v>352</v>
+      </c>
+      <c r="H45" s="170"/>
+      <c r="I45" s="193"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="59"/>
@@ -9085,35 +9088,35 @@
       <c r="CR45" s="67"/>
     </row>
     <row r="46" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="132"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="138"/>
+        <v>97</v>
+      </c>
+      <c r="F46" s="195"/>
       <c r="G46" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="H46" s="136"/>
-      <c r="I46" s="132" t="s">
-        <v>78</v>
+        <v>353</v>
+      </c>
+      <c r="H46" s="171"/>
+      <c r="I46" s="165" t="s">
+        <v>77</v>
       </c>
       <c r="J46" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="L46" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="L46" s="59" t="s">
+      <c r="M46" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="M46" s="85" t="s">
+      <c r="N46" s="85" t="s">
         <v>359</v>
-      </c>
-      <c r="N46" s="85" t="s">
-        <v>360</v>
       </c>
       <c r="O46" s="74"/>
       <c r="P46" s="63"/>
@@ -9199,18 +9202,18 @@
       <c r="CR46" s="67"/>
     </row>
     <row r="47" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="131"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="25"/>
@@ -9303,18 +9306,18 @@
       <c r="CR47" s="67"/>
     </row>
     <row r="48" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="131"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="25"/>
@@ -9407,18 +9410,18 @@
       <c r="CR48" s="67"/>
     </row>
     <row r="49" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="126"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="131"/>
+      <c r="A49" s="132"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="25"/>
@@ -9511,18 +9514,18 @@
       <c r="CR49" s="67"/>
     </row>
     <row r="50" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="126"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="131"/>
+      <c r="A50" s="132"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="163"/>
       <c r="D50" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="25"/>
@@ -9615,37 +9618,37 @@
       <c r="CR50" s="67"/>
     </row>
     <row r="51" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="126"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="130" t="s">
-        <v>90</v>
+      <c r="A51" s="132"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="162" t="s">
+        <v>89</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="H51" s="134" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="H51" s="196" t="s">
+        <v>364</v>
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="K51" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="L51" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="L51" s="59" t="s">
+      <c r="M51" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="M51" s="85" t="s">
+      <c r="N51" s="85" t="s">
         <v>370</v>
-      </c>
-      <c r="N51" s="85" t="s">
-        <v>371</v>
       </c>
       <c r="O51" s="74"/>
       <c r="P51" s="63"/>
@@ -9731,33 +9734,33 @@
       <c r="CR51" s="67"/>
     </row>
     <row r="52" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="126"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="133"/>
+      <c r="A52" s="132"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="193"/>
       <c r="E52" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="86" t="s">
-        <v>363</v>
-      </c>
-      <c r="H52" s="136"/>
+        <v>362</v>
+      </c>
+      <c r="H52" s="171"/>
       <c r="I52" s="25"/>
       <c r="J52" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="L52" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="L52" s="59" t="s">
+      <c r="M52" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="M52" s="85" t="s">
+      <c r="N52" s="85" t="s">
         <v>370</v>
-      </c>
-      <c r="N52" s="85" t="s">
-        <v>371</v>
       </c>
       <c r="O52" s="74"/>
       <c r="P52" s="63"/>
@@ -9843,35 +9846,35 @@
       <c r="CR52" s="67"/>
     </row>
     <row r="53" spans="1:96" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="126"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="139"/>
+      <c r="A53" s="132"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="197"/>
       <c r="E53" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="96" t="s">
-        <v>364</v>
-      </c>
-      <c r="H53" s="130" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="H53" s="162" t="s">
+        <v>365</v>
       </c>
       <c r="I53" s="98"/>
       <c r="J53" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="L53" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="L53" s="59" t="s">
+      <c r="M53" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="M53" s="85" t="s">
+      <c r="N53" s="85" t="s">
         <v>370</v>
-      </c>
-      <c r="N53" s="85" t="s">
-        <v>371</v>
       </c>
       <c r="O53" s="74"/>
       <c r="P53" s="63"/>
@@ -9957,18 +9960,18 @@
       <c r="CR53" s="67"/>
     </row>
     <row r="54" spans="1:96" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="140"/>
+      <c r="A54" s="132"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="198"/>
       <c r="E54" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="141"/>
+        <v>100</v>
+      </c>
+      <c r="H54" s="199"/>
       <c r="I54" s="98"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
@@ -10059,19 +10062,19 @@
       <c r="CR54" s="67"/>
     </row>
     <row r="55" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
+      <c r="A55" s="132"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H55" s="56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I55" s="25"/>
       <c r="J55" s="16"/>
@@ -10163,23 +10166,23 @@
       <c r="CR55" s="67"/>
     </row>
     <row r="56" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="130" t="s">
-        <v>103</v>
+      <c r="A56" s="132"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="162" t="s">
+        <v>102</v>
       </c>
       <c r="E56" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="142" t="s">
+      <c r="G56" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="H56" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="16"/>
@@ -10271,19 +10274,19 @@
       <c r="CR56" s="67"/>
     </row>
     <row r="57" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="126"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
+      <c r="A57" s="132"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="201"/>
+      <c r="G57" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="F57" s="143"/>
-      <c r="G57" s="58" t="s">
+      <c r="H57" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="I57" s="25"/>
       <c r="J57" s="16"/>
@@ -10375,19 +10378,19 @@
       <c r="CR57" s="67"/>
     </row>
     <row r="58" spans="1:96" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="126"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
+      <c r="A58" s="132"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="201"/>
+      <c r="G58" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="143"/>
-      <c r="G58" s="86" t="s">
+      <c r="H58" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I58" s="25"/>
       <c r="J58" s="16"/>
@@ -10479,19 +10482,19 @@
       <c r="CR58" s="67"/>
     </row>
     <row r="59" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="126"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="201"/>
+      <c r="G59" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="143"/>
-      <c r="G59" s="48" t="s">
+      <c r="H59" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="16"/>
@@ -10583,19 +10586,19 @@
       <c r="CR59" s="67"/>
     </row>
     <row r="60" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="126"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="132"/>
+      <c r="A60" s="132"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="202"/>
+      <c r="G60" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="144"/>
-      <c r="G60" s="48" t="s">
-        <v>121</v>
-      </c>
       <c r="H60" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="16"/>
@@ -10687,18 +10690,18 @@
       <c r="CR60" s="67"/>
     </row>
     <row r="61" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="126"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="130" t="s">
-        <v>122</v>
+      <c r="A61" s="132"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="162" t="s">
+        <v>121</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="25"/>
@@ -10791,33 +10794,33 @@
       <c r="CR61" s="67"/>
     </row>
     <row r="62" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="126"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
+      <c r="A62" s="132"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J62" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="K62" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="L62" s="59"/>
       <c r="M62" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="N62" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="N62" s="85" t="s">
-        <v>320</v>
       </c>
       <c r="O62" s="74"/>
       <c r="P62" s="63"/>
@@ -10901,16 +10904,16 @@
       <c r="CR62" s="67"/>
     </row>
     <row r="63" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="126"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
+      <c r="A63" s="132"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="25"/>
@@ -11003,16 +11006,16 @@
       <c r="CR63" s="67"/>
     </row>
     <row r="64" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="126"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
+      <c r="A64" s="132"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="25"/>
@@ -11105,35 +11108,35 @@
       <c r="CR64" s="67"/>
     </row>
     <row r="65" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="126"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
+      <c r="A65" s="132"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J65" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="K65" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="L65" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="L65" s="59" t="s">
+      <c r="M65" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="M65" s="85" t="s">
+      <c r="N65" s="85" t="s">
         <v>324</v>
-      </c>
-      <c r="N65" s="85" t="s">
-        <v>325</v>
       </c>
       <c r="O65" s="74"/>
       <c r="P65" s="63"/>
@@ -11219,16 +11222,16 @@
       <c r="CR65" s="67"/>
     </row>
     <row r="66" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="25"/>
@@ -11321,35 +11324,35 @@
       <c r="CR66" s="67"/>
     </row>
     <row r="67" spans="1:96" ht="67.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="126"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K67" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="L67" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L67" s="59" t="s">
-        <v>327</v>
-      </c>
       <c r="M67" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="N67" s="85" t="s">
         <v>324</v>
-      </c>
-      <c r="N67" s="85" t="s">
-        <v>325</v>
       </c>
       <c r="O67" s="74"/>
       <c r="P67" s="63"/>
@@ -11435,35 +11438,35 @@
       <c r="CR67" s="67"/>
     </row>
     <row r="68" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="126"/>
-      <c r="B68" s="127"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="131"/>
+      <c r="A68" s="132"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K68" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="L68" s="16" t="s">
-        <v>329</v>
-      </c>
       <c r="M68" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="N68" s="85" t="s">
         <v>324</v>
-      </c>
-      <c r="N68" s="85" t="s">
-        <v>325</v>
       </c>
       <c r="O68" s="74"/>
       <c r="P68" s="63"/>
@@ -11549,16 +11552,16 @@
       <c r="CR68" s="67"/>
     </row>
     <row r="69" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="126"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="131"/>
+      <c r="A69" s="132"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
       <c r="E69" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="25"/>
@@ -11651,35 +11654,35 @@
       <c r="CR69" s="67"/>
     </row>
     <row r="70" spans="1:96" ht="67.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="126"/>
-      <c r="B70" s="127"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="131"/>
+      <c r="A70" s="132"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K70" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="L70" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="L70" s="16" t="s">
-        <v>331</v>
-      </c>
       <c r="M70" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="N70" s="85" t="s">
         <v>324</v>
-      </c>
-      <c r="N70" s="85" t="s">
-        <v>325</v>
       </c>
       <c r="O70" s="74"/>
       <c r="P70" s="63"/>
@@ -11765,35 +11768,35 @@
       <c r="CR70" s="67"/>
     </row>
     <row r="71" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="126"/>
-      <c r="B71" s="127"/>
-      <c r="C71" s="131"/>
-      <c r="D71" s="131"/>
+      <c r="A71" s="132"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
       <c r="E71" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K71" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="L71" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="L71" s="16" t="s">
-        <v>333</v>
-      </c>
       <c r="M71" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="N71" s="85" t="s">
         <v>324</v>
-      </c>
-      <c r="N71" s="85" t="s">
-        <v>325</v>
       </c>
       <c r="O71" s="74"/>
       <c r="P71" s="63"/>
@@ -11879,16 +11882,16 @@
       <c r="CR71" s="67"/>
     </row>
     <row r="72" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="126"/>
-      <c r="B72" s="127"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
+      <c r="A72" s="132"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="163"/>
       <c r="E72" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="25"/>
@@ -11981,35 +11984,35 @@
       <c r="CR72" s="67"/>
     </row>
     <row r="73" spans="1:96" ht="67.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="126"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="131"/>
+      <c r="A73" s="132"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
       <c r="E73" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K73" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="L73" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="L73" s="16" t="s">
-        <v>335</v>
-      </c>
       <c r="M73" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="N73" s="85" t="s">
         <v>324</v>
-      </c>
-      <c r="N73" s="85" t="s">
-        <v>325</v>
       </c>
       <c r="O73" s="74"/>
       <c r="P73" s="63"/>
@@ -12095,39 +12098,39 @@
       <c r="CR73" s="67"/>
     </row>
     <row r="74" spans="1:96" ht="81" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="126"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="133"/>
-      <c r="D74" s="203" t="s">
+      <c r="A74" s="132"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="193"/>
+      <c r="D74" s="156" t="s">
+        <v>439</v>
+      </c>
+      <c r="E74" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="114" t="s">
         <v>440</v>
       </c>
-      <c r="E74" s="181" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74" s="204" t="s">
-        <v>441</v>
-      </c>
-      <c r="G74" s="179" t="s">
+      <c r="G74" s="104" t="s">
+        <v>442</v>
+      </c>
+      <c r="H74" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="H74" s="181" t="s">
+      <c r="I74" s="94"/>
+      <c r="J74" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="I74" s="94"/>
-      <c r="J74" s="181" t="s">
+      <c r="K74" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="K74" s="181" t="s">
+      <c r="L74" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="L74" s="182" t="s">
+      <c r="M74" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="M74" s="85" t="s">
+      <c r="N74" s="85" t="s">
         <v>448</v>
-      </c>
-      <c r="N74" s="85" t="s">
-        <v>449</v>
       </c>
       <c r="O74" s="74"/>
       <c r="P74" s="63"/>
@@ -12213,37 +12216,37 @@
       <c r="CR74" s="67"/>
     </row>
     <row r="75" spans="1:96" ht="243" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="126"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="205"/>
-      <c r="E75" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="181" t="s">
+      <c r="A75" s="132"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="193"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="105" t="s">
+        <v>449</v>
+      </c>
+      <c r="G75" s="104" t="s">
         <v>450</v>
       </c>
-      <c r="G75" s="179" t="s">
+      <c r="H75" s="105" t="s">
+        <v>409</v>
+      </c>
+      <c r="I75" s="94"/>
+      <c r="J75" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="K75" s="105" t="s">
         <v>451</v>
       </c>
-      <c r="H75" s="181" t="s">
-        <v>410</v>
-      </c>
-      <c r="I75" s="94"/>
-      <c r="J75" s="181" t="s">
-        <v>445</v>
-      </c>
-      <c r="K75" s="181" t="s">
+      <c r="L75" s="106" t="s">
         <v>452</v>
       </c>
-      <c r="L75" s="182" t="s">
+      <c r="M75" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="M75" s="85" t="s">
+      <c r="N75" s="85" t="s">
         <v>454</v>
-      </c>
-      <c r="N75" s="85" t="s">
-        <v>455</v>
       </c>
       <c r="O75" s="74"/>
       <c r="P75" s="63"/>
@@ -12299,14 +12302,14 @@
       <c r="BN75" s="67"/>
       <c r="BO75" s="67"/>
       <c r="BP75" s="67"/>
-      <c r="BQ75" s="206"/>
-      <c r="BR75" s="206"/>
-      <c r="BS75" s="208"/>
-      <c r="BT75" s="208"/>
-      <c r="BU75" s="208"/>
+      <c r="BQ75" s="115"/>
+      <c r="BR75" s="115"/>
+      <c r="BS75" s="117"/>
+      <c r="BT75" s="117"/>
+      <c r="BU75" s="117"/>
       <c r="BV75" s="67"/>
       <c r="BW75" s="67"/>
-      <c r="BX75" s="208"/>
+      <c r="BX75" s="117"/>
       <c r="BY75" s="67"/>
       <c r="BZ75" s="67"/>
       <c r="CA75" s="67"/>
@@ -12329,37 +12332,37 @@
       <c r="CR75" s="67"/>
     </row>
     <row r="76" spans="1:96" ht="162" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="126"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="133"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="181" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="181" t="s">
+      <c r="A76" s="132"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="193"/>
+      <c r="D76" s="157"/>
+      <c r="E76" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="105" t="s">
+        <v>455</v>
+      </c>
+      <c r="G76" s="104" t="s">
         <v>456</v>
       </c>
-      <c r="G76" s="179" t="s">
+      <c r="H76" s="105" t="s">
         <v>457</v>
       </c>
-      <c r="H76" s="181" t="s">
+      <c r="I76" s="94"/>
+      <c r="J76" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="K76" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="L76" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="M76" s="85" t="s">
+        <v>447</v>
+      </c>
+      <c r="N76" s="85" t="s">
         <v>458</v>
-      </c>
-      <c r="I76" s="94"/>
-      <c r="J76" s="181" t="s">
-        <v>445</v>
-      </c>
-      <c r="K76" s="181" t="s">
-        <v>452</v>
-      </c>
-      <c r="L76" s="207" t="s">
-        <v>441</v>
-      </c>
-      <c r="M76" s="85" t="s">
-        <v>448</v>
-      </c>
-      <c r="N76" s="85" t="s">
-        <v>459</v>
       </c>
       <c r="O76" s="74"/>
       <c r="P76" s="63"/>
@@ -12396,16 +12399,16 @@
       <c r="AU76" s="64"/>
       <c r="AV76" s="64"/>
       <c r="AW76" s="64"/>
-      <c r="AX76" s="209"/>
-      <c r="AY76" s="209"/>
+      <c r="AX76" s="118"/>
+      <c r="AY76" s="118"/>
       <c r="AZ76" s="65"/>
       <c r="BA76" s="66"/>
       <c r="BB76" s="67"/>
-      <c r="BC76" s="208"/>
-      <c r="BD76" s="208"/>
-      <c r="BE76" s="208"/>
-      <c r="BF76" s="208"/>
-      <c r="BG76" s="208"/>
+      <c r="BC76" s="117"/>
+      <c r="BD76" s="117"/>
+      <c r="BE76" s="117"/>
+      <c r="BF76" s="117"/>
+      <c r="BG76" s="117"/>
       <c r="BH76" s="67"/>
       <c r="BI76" s="67"/>
       <c r="BJ76" s="67"/>
@@ -12445,37 +12448,37 @@
       <c r="CR76" s="67"/>
     </row>
     <row r="77" spans="1:96" ht="189" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="126"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="205"/>
-      <c r="E77" s="181" t="s">
-        <v>130</v>
-      </c>
-      <c r="F77" s="181" t="s">
+      <c r="A77" s="132"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="193"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="G77" s="108" t="s">
         <v>460</v>
       </c>
-      <c r="G77" s="186" t="s">
+      <c r="H77" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="I77" s="94"/>
+      <c r="J77" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="K77" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="L77" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="M77" s="85" t="s">
+        <v>447</v>
+      </c>
+      <c r="N77" s="85" t="s">
         <v>461</v>
-      </c>
-      <c r="H77" s="181" t="s">
-        <v>437</v>
-      </c>
-      <c r="I77" s="94"/>
-      <c r="J77" s="181" t="s">
-        <v>445</v>
-      </c>
-      <c r="K77" s="181" t="s">
-        <v>452</v>
-      </c>
-      <c r="L77" s="182" t="s">
-        <v>447</v>
-      </c>
-      <c r="M77" s="85" t="s">
-        <v>448</v>
-      </c>
-      <c r="N77" s="85" t="s">
-        <v>462</v>
       </c>
       <c r="O77" s="74"/>
       <c r="P77" s="63"/>
@@ -12524,17 +12527,17 @@
       <c r="BG77" s="67"/>
       <c r="BH77" s="67"/>
       <c r="BI77" s="67"/>
-      <c r="BJ77" s="208"/>
-      <c r="BK77" s="208"/>
-      <c r="BL77" s="208"/>
-      <c r="BM77" s="208"/>
+      <c r="BJ77" s="117"/>
+      <c r="BK77" s="117"/>
+      <c r="BL77" s="117"/>
+      <c r="BM77" s="117"/>
       <c r="BN77" s="67"/>
       <c r="BO77" s="67"/>
       <c r="BP77" s="67"/>
-      <c r="BQ77" s="208"/>
-      <c r="BR77" s="210"/>
+      <c r="BQ77" s="117"/>
+      <c r="BR77" s="119"/>
       <c r="BS77" s="67"/>
-      <c r="BT77" s="208"/>
+      <c r="BT77" s="117"/>
       <c r="BU77" s="67"/>
       <c r="BV77" s="67"/>
       <c r="BW77" s="67"/>
@@ -12561,37 +12564,37 @@
       <c r="CR77" s="67"/>
     </row>
     <row r="78" spans="1:96" ht="216" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="126"/>
-      <c r="B78" s="127"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="205"/>
-      <c r="E78" s="181" t="s">
+      <c r="A78" s="132"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="193"/>
+      <c r="D78" s="157"/>
+      <c r="E78" s="105" t="s">
+        <v>462</v>
+      </c>
+      <c r="F78" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="F78" s="181" t="s">
+      <c r="G78" s="108" t="s">
         <v>464</v>
       </c>
-      <c r="G78" s="186" t="s">
+      <c r="H78" s="105" t="s">
+        <v>424</v>
+      </c>
+      <c r="I78" s="94"/>
+      <c r="J78" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="K78" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="L78" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="M78" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="H78" s="181" t="s">
-        <v>425</v>
-      </c>
-      <c r="I78" s="94"/>
-      <c r="J78" s="181" t="s">
-        <v>445</v>
-      </c>
-      <c r="K78" s="181" t="s">
-        <v>452</v>
-      </c>
-      <c r="L78" s="182" t="s">
-        <v>447</v>
-      </c>
-      <c r="M78" s="85" t="s">
+      <c r="N78" s="85" t="s">
         <v>466</v>
-      </c>
-      <c r="N78" s="85" t="s">
-        <v>467</v>
       </c>
       <c r="O78" s="74"/>
       <c r="P78" s="63"/>
@@ -12644,18 +12647,18 @@
       <c r="BK78" s="67"/>
       <c r="BL78" s="67"/>
       <c r="BM78" s="67"/>
-      <c r="BN78" s="208"/>
+      <c r="BN78" s="117"/>
       <c r="BO78" s="67"/>
       <c r="BP78" s="67"/>
       <c r="BQ78" s="67"/>
       <c r="BR78" s="67"/>
       <c r="BS78" s="67"/>
-      <c r="BT78" s="208"/>
+      <c r="BT78" s="117"/>
       <c r="BU78" s="67"/>
       <c r="BV78" s="67"/>
       <c r="BW78" s="67"/>
       <c r="BX78" s="67"/>
-      <c r="BY78" s="208"/>
+      <c r="BY78" s="117"/>
       <c r="BZ78" s="67"/>
       <c r="CA78" s="67"/>
       <c r="CB78" s="67"/>
@@ -12677,18 +12680,18 @@
       <c r="CR78" s="67"/>
     </row>
     <row r="79" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="126"/>
-      <c r="B79" s="127"/>
-      <c r="C79" s="131"/>
+      <c r="A79" s="132"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="163"/>
       <c r="D79" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="25"/>
@@ -12781,14 +12784,14 @@
       <c r="CR79" s="67"/>
     </row>
     <row r="80" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="126"/>
-      <c r="B80" s="127"/>
-      <c r="C80" s="131"/>
+      <c r="A80" s="132"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="163"/>
       <c r="D80" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="25"/>
@@ -12883,39 +12886,39 @@
       <c r="CR80" s="67"/>
     </row>
     <row r="81" spans="1:96" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="126"/>
-      <c r="B81" s="127"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="145" t="s">
-        <v>90</v>
+      <c r="A81" s="132"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="203" t="s">
+        <v>89</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G81" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="H81" s="16" t="s">
         <v>372</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>373</v>
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="K81" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="L81" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="L81" s="59" t="s">
+      <c r="M81" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="M81" s="85" t="s">
+      <c r="N81" s="85" t="s">
         <v>377</v>
-      </c>
-      <c r="N81" s="85" t="s">
-        <v>378</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="63"/>
@@ -13001,39 +13004,39 @@
       <c r="CR81" s="67"/>
     </row>
     <row r="82" spans="1:96" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="126"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="139"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="163"/>
+      <c r="D82" s="197"/>
       <c r="E82" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F82" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G82" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="G82" s="95" t="s">
-        <v>381</v>
-      </c>
       <c r="H82" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J82" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K82" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="K82" s="59" t="s">
+      <c r="L82" s="85" t="s">
         <v>357</v>
       </c>
-      <c r="L82" s="85" t="s">
+      <c r="M82" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="M82" s="85" t="s">
+      <c r="N82" s="85" t="s">
         <v>359</v>
-      </c>
-      <c r="N82" s="85" t="s">
-        <v>360</v>
       </c>
       <c r="O82" s="74"/>
       <c r="P82" s="63"/>
@@ -13119,37 +13122,37 @@
       <c r="CR82" s="67"/>
     </row>
     <row r="83" spans="1:96" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="126"/>
-      <c r="B83" s="127"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="140"/>
+      <c r="A83" s="132"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="198"/>
       <c r="E83" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J83" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K83" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="K83" s="59" t="s">
+      <c r="L83" s="85" t="s">
         <v>357</v>
       </c>
-      <c r="L83" s="85" t="s">
+      <c r="M83" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="M83" s="85" t="s">
+      <c r="N83" s="85" t="s">
         <v>359</v>
-      </c>
-      <c r="N83" s="85" t="s">
-        <v>360</v>
       </c>
       <c r="O83" s="74"/>
       <c r="P83" s="63"/>
@@ -13235,39 +13238,39 @@
       <c r="CR83" s="67"/>
     </row>
     <row r="84" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="126"/>
-      <c r="B84" s="127"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="132"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="165"/>
       <c r="E84" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F84" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G84" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="H84" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="G84" s="48" t="s">
+      <c r="I84" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K84" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="H84" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="I84" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J84" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="K84" s="59" t="s">
+      <c r="L84" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="L84" s="85" t="s">
+      <c r="M84" s="85" t="s">
         <v>389</v>
       </c>
-      <c r="M84" s="85" t="s">
-        <v>390</v>
-      </c>
       <c r="N84" s="85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O84" s="74"/>
       <c r="P84" s="63"/>
@@ -13353,39 +13356,39 @@
       <c r="CR84" s="67"/>
     </row>
     <row r="85" spans="1:96" ht="67.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="126"/>
-      <c r="B85" s="127"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="130" t="s">
+      <c r="A85" s="132"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="162" t="s">
         <v>60</v>
       </c>
       <c r="E85" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="G85" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="H85" s="16"/>
+      <c r="I85" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="146" t="s">
+      <c r="J85" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="J85" s="146" t="s">
+      <c r="K85" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="K85" s="146" t="s">
+      <c r="L85" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="L85" s="149" t="s">
+      <c r="M85" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="152" t="s">
+      <c r="N85" s="184" t="s">
         <v>146</v>
-      </c>
-      <c r="N85" s="152" t="s">
-        <v>147</v>
       </c>
       <c r="O85" s="74"/>
       <c r="P85" s="63"/>
@@ -13471,26 +13474,26 @@
       <c r="CR85" s="67"/>
     </row>
     <row r="86" spans="1:96" ht="67.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="126"/>
-      <c r="B86" s="127"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
       <c r="E86" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="G86" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="H86" s="16"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="147"/>
-      <c r="K86" s="147"/>
-      <c r="L86" s="150"/>
-      <c r="M86" s="153"/>
-      <c r="N86" s="153"/>
+      <c r="I86" s="188"/>
+      <c r="J86" s="188"/>
+      <c r="K86" s="188"/>
+      <c r="L86" s="191"/>
+      <c r="M86" s="185"/>
+      <c r="N86" s="185"/>
       <c r="O86" s="74"/>
       <c r="P86" s="63"/>
       <c r="Q86" s="64"/>
@@ -13575,26 +13578,26 @@
       <c r="CR86" s="67"/>
     </row>
     <row r="87" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="126"/>
-      <c r="B87" s="127"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
       <c r="E87" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="G87" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>153</v>
-      </c>
       <c r="H87" s="16"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="147"/>
-      <c r="L87" s="150"/>
-      <c r="M87" s="153"/>
-      <c r="N87" s="153"/>
+      <c r="I87" s="188"/>
+      <c r="J87" s="188"/>
+      <c r="K87" s="188"/>
+      <c r="L87" s="191"/>
+      <c r="M87" s="185"/>
+      <c r="N87" s="185"/>
       <c r="O87" s="74"/>
       <c r="P87" s="63"/>
       <c r="Q87" s="64"/>
@@ -13679,26 +13682,26 @@
       <c r="CR87" s="67"/>
     </row>
     <row r="88" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="126"/>
-      <c r="B88" s="127"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="132"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="165"/>
       <c r="E88" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="G88" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="G88" s="48" t="s">
-        <v>156</v>
-      </c>
       <c r="H88" s="16"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="148"/>
-      <c r="K88" s="148"/>
-      <c r="L88" s="151"/>
-      <c r="M88" s="154"/>
-      <c r="N88" s="154"/>
+      <c r="I88" s="189"/>
+      <c r="J88" s="189"/>
+      <c r="K88" s="189"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="186"/>
+      <c r="N88" s="186"/>
       <c r="O88" s="74"/>
       <c r="P88" s="63"/>
       <c r="Q88" s="64"/>
@@ -13783,20 +13786,20 @@
       <c r="CR88" s="67"/>
     </row>
     <row r="89" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="126"/>
-      <c r="B89" s="127"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="130" t="s">
+      <c r="A89" s="132"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="162" t="s">
         <v>60</v>
       </c>
       <c r="E89" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="F89" s="146" t="s">
+      <c r="G89" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="25"/>
@@ -13889,16 +13892,16 @@
       <c r="CR89" s="67"/>
     </row>
     <row r="90" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="126"/>
-      <c r="B90" s="127"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="163"/>
+      <c r="D90" s="163"/>
       <c r="E90" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="188"/>
+      <c r="G90" s="48" t="s">
         <v>160</v>
-      </c>
-      <c r="F90" s="147"/>
-      <c r="G90" s="48" t="s">
-        <v>161</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="25"/>
@@ -13991,16 +13994,16 @@
       <c r="CR90" s="67"/>
     </row>
     <row r="91" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="126"/>
-      <c r="B91" s="127"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="163"/>
+      <c r="D91" s="163"/>
       <c r="E91" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="188"/>
+      <c r="G91" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="F91" s="147"/>
-      <c r="G91" s="48" t="s">
-        <v>163</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="25"/>
@@ -14093,16 +14096,16 @@
       <c r="CR91" s="67"/>
     </row>
     <row r="92" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="126"/>
-      <c r="B92" s="127"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
+      <c r="A92" s="132"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="163"/>
+      <c r="D92" s="163"/>
       <c r="E92" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="188"/>
+      <c r="G92" s="48" t="s">
         <v>164</v>
-      </c>
-      <c r="F92" s="147"/>
-      <c r="G92" s="48" t="s">
-        <v>165</v>
       </c>
       <c r="H92" s="16"/>
       <c r="I92" s="25"/>
@@ -14195,33 +14198,33 @@
       <c r="CR92" s="67"/>
     </row>
     <row r="93" spans="1:96" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="126"/>
-      <c r="B93" s="127"/>
-      <c r="C93" s="131"/>
-      <c r="D93" s="131"/>
+      <c r="A93" s="132"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="163"/>
+      <c r="D93" s="163"/>
       <c r="E93" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" s="188"/>
+      <c r="G93" s="48" t="s">
         <v>166</v>
-      </c>
-      <c r="F93" s="147"/>
-      <c r="G93" s="48" t="s">
-        <v>167</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="J93" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="J93" s="16" t="s">
+      <c r="K93" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="K93" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="L93" s="59"/>
       <c r="M93" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="N93" s="85" t="s">
         <v>171</v>
-      </c>
-      <c r="N93" s="85" t="s">
-        <v>172</v>
       </c>
       <c r="O93" s="74"/>
       <c r="P93" s="63"/>
@@ -14307,16 +14310,16 @@
       <c r="CR93" s="67"/>
     </row>
     <row r="94" spans="1:96" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="126"/>
-      <c r="B94" s="127"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="132"/>
+      <c r="A94" s="132"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="165"/>
       <c r="E94" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" s="189"/>
+      <c r="G94" s="48" t="s">
         <v>173</v>
-      </c>
-      <c r="F94" s="148"/>
-      <c r="G94" s="48" t="s">
-        <v>174</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="25"/>
@@ -14409,25 +14412,25 @@
       <c r="CR94" s="67"/>
     </row>
     <row r="95" spans="1:96" ht="81" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="126"/>
-      <c r="B95" s="127"/>
-      <c r="C95" s="130" t="s">
+      <c r="A95" s="132"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D95" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95" s="14" t="s">
+      <c r="F95" s="187" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="F95" s="146" t="s">
-        <v>75</v>
-      </c>
-      <c r="G95" s="48" t="s">
+      <c r="H95" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="I95" s="25"/>
       <c r="J95" s="16"/>
@@ -14519,19 +14522,19 @@
       <c r="CR95" s="67"/>
     </row>
     <row r="96" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="126"/>
-      <c r="B96" s="127"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
+      <c r="A96" s="132"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="163"/>
+      <c r="D96" s="163"/>
       <c r="E96" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="188"/>
+      <c r="G96" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F96" s="147"/>
-      <c r="G96" s="48" t="s">
+      <c r="H96" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="I96" s="25"/>
       <c r="J96" s="16"/>
@@ -14623,19 +14626,19 @@
       <c r="CR96" s="67"/>
     </row>
     <row r="97" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="126"/>
-      <c r="B97" s="127"/>
-      <c r="C97" s="131"/>
-      <c r="D97" s="131"/>
+      <c r="A97" s="132"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="163"/>
+      <c r="D97" s="163"/>
       <c r="E97" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F97" s="188"/>
+      <c r="G97" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="F97" s="147"/>
-      <c r="G97" s="48" t="s">
+      <c r="H97" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="I97" s="25"/>
       <c r="J97" s="16"/>
@@ -14727,19 +14730,19 @@
       <c r="CR97" s="67"/>
     </row>
     <row r="98" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="126"/>
-      <c r="B98" s="127"/>
-      <c r="C98" s="132"/>
-      <c r="D98" s="132"/>
+      <c r="A98" s="132"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
       <c r="E98" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="189"/>
+      <c r="G98" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F98" s="148"/>
-      <c r="G98" s="48" t="s">
+      <c r="H98" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="I98" s="25"/>
       <c r="J98" s="16"/>
@@ -14831,22 +14834,22 @@
       <c r="CR98" s="67"/>
     </row>
     <row r="99" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="128"/>
-      <c r="B99" s="129"/>
+      <c r="A99" s="135"/>
+      <c r="B99" s="137"/>
       <c r="C99" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F99" s="16" t="s">
         <v>75</v>
       </c>
       <c r="G99" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="25"/>
@@ -14938,47 +14941,47 @@
       <c r="CQ99" s="67"/>
       <c r="CR99" s="67"/>
     </row>
-    <row r="100" spans="1:96" s="121" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="121" t="s">
-        <v>190</v>
+    <row r="100" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="141" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:96" ht="270" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="126"/>
-      <c r="B101" s="156"/>
-      <c r="C101" s="127"/>
-      <c r="D101" s="216" t="s">
-        <v>89</v>
-      </c>
-      <c r="E101" s="181" t="s">
+      <c r="A101" s="132"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="F101" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="G101" s="108" t="s">
         <v>468</v>
       </c>
-      <c r="F101" s="211" t="s">
-        <v>441</v>
-      </c>
-      <c r="G101" s="186" t="s">
+      <c r="H101" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="H101" s="212" t="s">
+      <c r="I101" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="I101" s="213" t="s">
+      <c r="J101" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="K101" s="105" t="s">
+        <v>445</v>
+      </c>
+      <c r="L101" s="106" t="s">
+        <v>452</v>
+      </c>
+      <c r="M101" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="N101" s="85" t="s">
         <v>471</v>
-      </c>
-      <c r="J101" s="181" t="s">
-        <v>445</v>
-      </c>
-      <c r="K101" s="181" t="s">
-        <v>446</v>
-      </c>
-      <c r="L101" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="M101" s="85" t="s">
-        <v>454</v>
-      </c>
-      <c r="N101" s="85" t="s">
-        <v>472</v>
       </c>
       <c r="O101" s="75"/>
       <c r="P101" s="68"/>
@@ -15002,42 +15005,42 @@
       <c r="AH101" s="69"/>
       <c r="AI101" s="69"/>
       <c r="AJ101" s="69"/>
-      <c r="AK101" s="223"/>
-      <c r="AL101" s="223"/>
+      <c r="AK101" s="128"/>
+      <c r="AL101" s="128"/>
       <c r="AM101" s="69"/>
       <c r="AN101" s="69"/>
       <c r="AO101" s="69"/>
       <c r="AP101" s="69"/>
       <c r="AQ101" s="69"/>
-      <c r="AR101" s="223"/>
-      <c r="AS101" s="223"/>
+      <c r="AR101" s="128"/>
+      <c r="AS101" s="128"/>
       <c r="AT101" s="69"/>
       <c r="AU101" s="69"/>
-      <c r="AV101" s="223"/>
-      <c r="AW101" s="223"/>
-      <c r="AX101" s="209"/>
-      <c r="AY101" s="209"/>
+      <c r="AV101" s="128"/>
+      <c r="AW101" s="128"/>
+      <c r="AX101" s="118"/>
+      <c r="AY101" s="118"/>
       <c r="AZ101" s="65"/>
       <c r="BA101" s="66"/>
       <c r="BB101" s="70"/>
-      <c r="BC101" s="222"/>
-      <c r="BD101" s="222"/>
-      <c r="BE101" s="222"/>
-      <c r="BF101" s="222"/>
-      <c r="BG101" s="222"/>
+      <c r="BC101" s="127"/>
+      <c r="BD101" s="127"/>
+      <c r="BE101" s="127"/>
+      <c r="BF101" s="127"/>
+      <c r="BG101" s="127"/>
       <c r="BH101" s="70"/>
       <c r="BI101" s="70"/>
       <c r="BJ101" s="70"/>
-      <c r="BK101" s="222"/>
-      <c r="BL101" s="222"/>
+      <c r="BK101" s="127"/>
+      <c r="BL101" s="127"/>
       <c r="BM101" s="70"/>
-      <c r="BN101" s="222"/>
+      <c r="BN101" s="127"/>
       <c r="BO101" s="70"/>
       <c r="BP101" s="70"/>
-      <c r="BQ101" s="222"/>
-      <c r="BR101" s="222"/>
-      <c r="BS101" s="222"/>
-      <c r="BT101" s="222"/>
+      <c r="BQ101" s="127"/>
+      <c r="BR101" s="127"/>
+      <c r="BS101" s="127"/>
+      <c r="BT101" s="127"/>
       <c r="BU101" s="70"/>
       <c r="BV101" s="70"/>
       <c r="BW101" s="70"/>
@@ -15064,39 +15067,39 @@
       <c r="CR101" s="70"/>
     </row>
     <row r="102" spans="1:96" ht="54" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="126"/>
-      <c r="B102" s="156"/>
-      <c r="C102" s="127"/>
-      <c r="D102" s="217"/>
-      <c r="E102" s="181" t="s">
+      <c r="A102" s="132"/>
+      <c r="B102" s="133"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="159"/>
+      <c r="E102" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="F102" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="G102" s="108" t="s">
         <v>473</v>
       </c>
-      <c r="F102" s="211" t="s">
-        <v>441</v>
-      </c>
-      <c r="G102" s="186" t="s">
+      <c r="H102" s="122" t="s">
         <v>474</v>
       </c>
-      <c r="H102" s="213" t="s">
-        <v>475</v>
-      </c>
-      <c r="I102" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="J102" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="K102" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="L102" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="M102" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="N102" s="214" t="s">
-        <v>441</v>
+      <c r="I102" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="J102" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="K102" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="L102" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="M102" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="N102" s="123" t="s">
+        <v>440</v>
       </c>
       <c r="O102" s="75"/>
       <c r="P102" s="68"/>
@@ -15113,7 +15116,7 @@
       <c r="AA102" s="69"/>
       <c r="AB102" s="69"/>
       <c r="AC102" s="69"/>
-      <c r="AD102" s="223"/>
+      <c r="AD102" s="128"/>
       <c r="AE102" s="69"/>
       <c r="AF102" s="69"/>
       <c r="AG102" s="69"/>
@@ -15182,39 +15185,39 @@
       <c r="CR102" s="70"/>
     </row>
     <row r="103" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="126"/>
-      <c r="B103" s="156"/>
-      <c r="C103" s="127"/>
-      <c r="D103" s="217"/>
-      <c r="E103" s="181" t="s">
+      <c r="A103" s="132"/>
+      <c r="B103" s="133"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="159"/>
+      <c r="E103" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="F103" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="G103" s="108" t="s">
         <v>476</v>
       </c>
-      <c r="F103" s="215" t="s">
-        <v>441</v>
-      </c>
-      <c r="G103" s="186" t="s">
-        <v>477</v>
-      </c>
-      <c r="H103" s="213" t="s">
-        <v>475</v>
-      </c>
-      <c r="I103" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="J103" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="K103" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="L103" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="M103" s="214" t="s">
-        <v>441</v>
-      </c>
-      <c r="N103" s="214" t="s">
-        <v>441</v>
+      <c r="H103" s="122" t="s">
+        <v>474</v>
+      </c>
+      <c r="I103" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="J103" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="K103" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="L103" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="M103" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="N103" s="123" t="s">
+        <v>440</v>
       </c>
       <c r="O103" s="75"/>
       <c r="P103" s="68"/>
@@ -15231,7 +15234,7 @@
       <c r="AA103" s="69"/>
       <c r="AB103" s="69"/>
       <c r="AC103" s="69"/>
-      <c r="AD103" s="223"/>
+      <c r="AD103" s="128"/>
       <c r="AE103" s="69"/>
       <c r="AF103" s="69"/>
       <c r="AG103" s="69"/>
@@ -15300,18 +15303,18 @@
       <c r="CR103" s="70"/>
     </row>
     <row r="104" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="126"/>
-      <c r="B104" s="156"/>
-      <c r="C104" s="127"/>
-      <c r="D104" s="158" t="s">
+      <c r="A104" s="132"/>
+      <c r="B104" s="133"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="138" t="s">
         <v>60</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
@@ -15404,16 +15407,16 @@
       <c r="CR104" s="70"/>
     </row>
     <row r="105" spans="1:96" ht="81" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="126"/>
-      <c r="B105" s="156"/>
-      <c r="C105" s="127"/>
-      <c r="D105" s="159"/>
+      <c r="A105" s="132"/>
+      <c r="B105" s="133"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="140"/>
       <c r="E105" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
@@ -15506,14 +15509,14 @@
       <c r="CR105" s="70"/>
     </row>
     <row r="106" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="126"/>
-      <c r="B106" s="156"/>
-      <c r="C106" s="127"/>
+      <c r="A106" s="132"/>
+      <c r="B106" s="133"/>
+      <c r="C106" s="134"/>
       <c r="D106" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="48"/>
@@ -15608,41 +15611,41 @@
       <c r="CR106" s="70"/>
     </row>
     <row r="107" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="126"/>
-      <c r="B107" s="156"/>
-      <c r="C107" s="127"/>
-      <c r="D107" s="176" t="s">
+      <c r="A107" s="132"/>
+      <c r="B107" s="133"/>
+      <c r="C107" s="134"/>
+      <c r="D107" s="181" t="s">
+        <v>439</v>
+      </c>
+      <c r="E107" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="F107" s="120" t="s">
         <v>440</v>
       </c>
-      <c r="E107" s="181" t="s">
-        <v>196</v>
-      </c>
-      <c r="F107" s="211" t="s">
-        <v>441</v>
-      </c>
-      <c r="G107" s="186" t="s">
+      <c r="G107" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="H107" s="125" t="s">
         <v>478</v>
       </c>
-      <c r="H107" s="218" t="s">
-        <v>479</v>
-      </c>
-      <c r="I107" s="219" t="s">
-        <v>471</v>
-      </c>
-      <c r="J107" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="K107" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="L107" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="M107" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="N107" s="220" t="s">
-        <v>441</v>
+      <c r="I107" s="160" t="s">
+        <v>470</v>
+      </c>
+      <c r="J107" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="K107" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="L107" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="M107" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="N107" s="126" t="s">
+        <v>440</v>
       </c>
       <c r="O107" s="75"/>
       <c r="P107" s="68"/>
@@ -15686,8 +15689,8 @@
       <c r="BB107" s="70"/>
       <c r="BC107" s="70"/>
       <c r="BD107" s="70"/>
-      <c r="BE107" s="222"/>
-      <c r="BF107" s="222"/>
+      <c r="BE107" s="127"/>
+      <c r="BF107" s="127"/>
       <c r="BG107" s="70"/>
       <c r="BH107" s="70"/>
       <c r="BI107" s="70"/>
@@ -15728,37 +15731,37 @@
       <c r="CR107" s="70"/>
     </row>
     <row r="108" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="126"/>
-      <c r="B108" s="156"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="193"/>
-      <c r="E108" s="181" t="s">
+      <c r="A108" s="132"/>
+      <c r="B108" s="133"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="182"/>
+      <c r="E108" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="F108" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="G108" s="108" t="s">
         <v>480</v>
       </c>
-      <c r="F108" s="215" t="s">
-        <v>441</v>
-      </c>
-      <c r="G108" s="186" t="s">
+      <c r="H108" s="125" t="s">
         <v>481</v>
       </c>
-      <c r="H108" s="218" t="s">
+      <c r="I108" s="161"/>
+      <c r="J108" s="125" t="s">
         <v>482</v>
       </c>
-      <c r="I108" s="221"/>
-      <c r="J108" s="218" t="s">
-        <v>483</v>
-      </c>
-      <c r="K108" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="L108" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="M108" s="220" t="s">
-        <v>441</v>
-      </c>
-      <c r="N108" s="220" t="s">
-        <v>441</v>
+      <c r="K108" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="L108" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="M108" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="N108" s="126" t="s">
+        <v>440</v>
       </c>
       <c r="O108" s="75"/>
       <c r="P108" s="68"/>
@@ -15802,8 +15805,8 @@
       <c r="BB108" s="70"/>
       <c r="BC108" s="70"/>
       <c r="BD108" s="70"/>
-      <c r="BE108" s="222"/>
-      <c r="BF108" s="222"/>
+      <c r="BE108" s="127"/>
+      <c r="BF108" s="127"/>
       <c r="BG108" s="70"/>
       <c r="BH108" s="70"/>
       <c r="BI108" s="70"/>
@@ -15844,14 +15847,14 @@
       <c r="CR108" s="70"/>
     </row>
     <row r="109" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="126"/>
-      <c r="B109" s="156"/>
-      <c r="C109" s="127"/>
-      <c r="D109" s="158" t="s">
-        <v>122</v>
+      <c r="A109" s="132"/>
+      <c r="B109" s="133"/>
+      <c r="C109" s="134"/>
+      <c r="D109" s="138" t="s">
+        <v>121</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="48"/>
@@ -15946,12 +15949,12 @@
       <c r="CR109" s="70"/>
     </row>
     <row r="110" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="126"/>
-      <c r="B110" s="156"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="159"/>
+      <c r="A110" s="132"/>
+      <c r="B110" s="133"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="140"/>
       <c r="E110" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="48"/>
@@ -16046,18 +16049,18 @@
       <c r="CR110" s="70"/>
     </row>
     <row r="111" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="126"/>
-      <c r="B111" s="156"/>
-      <c r="C111" s="127"/>
-      <c r="D111" s="158" t="s">
-        <v>90</v>
+      <c r="A111" s="132"/>
+      <c r="B111" s="133"/>
+      <c r="C111" s="134"/>
+      <c r="D111" s="138" t="s">
+        <v>89</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
@@ -16150,16 +16153,16 @@
       <c r="CR111" s="70"/>
     </row>
     <row r="112" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="126"/>
-      <c r="B112" s="156"/>
-      <c r="C112" s="127"/>
-      <c r="D112" s="160"/>
+      <c r="A112" s="132"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="134"/>
+      <c r="D112" s="183"/>
       <c r="E112" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
@@ -16252,16 +16255,16 @@
       <c r="CR112" s="70"/>
     </row>
     <row r="113" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="126"/>
-      <c r="B113" s="156"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="160"/>
+      <c r="A113" s="132"/>
+      <c r="B113" s="133"/>
+      <c r="C113" s="134"/>
+      <c r="D113" s="183"/>
       <c r="E113" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
@@ -16354,16 +16357,16 @@
       <c r="CR113" s="70"/>
     </row>
     <row r="114" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="126"/>
-      <c r="B114" s="156"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="161"/>
+      <c r="A114" s="132"/>
+      <c r="B114" s="133"/>
+      <c r="C114" s="134"/>
+      <c r="D114" s="139"/>
       <c r="E114" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
@@ -16456,16 +16459,16 @@
       <c r="CR114" s="70"/>
     </row>
     <row r="115" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="126"/>
-      <c r="B115" s="156"/>
-      <c r="C115" s="127"/>
-      <c r="D115" s="161"/>
+      <c r="A115" s="132"/>
+      <c r="B115" s="133"/>
+      <c r="C115" s="134"/>
+      <c r="D115" s="139"/>
       <c r="E115" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
@@ -16558,16 +16561,16 @@
       <c r="CR115" s="70"/>
     </row>
     <row r="116" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="126"/>
-      <c r="B116" s="156"/>
-      <c r="C116" s="127"/>
-      <c r="D116" s="161"/>
+      <c r="A116" s="132"/>
+      <c r="B116" s="133"/>
+      <c r="C116" s="134"/>
+      <c r="D116" s="139"/>
       <c r="E116" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
@@ -16660,16 +16663,16 @@
       <c r="CR116" s="70"/>
     </row>
     <row r="117" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="126"/>
-      <c r="B117" s="156"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="161"/>
+      <c r="A117" s="132"/>
+      <c r="B117" s="133"/>
+      <c r="C117" s="134"/>
+      <c r="D117" s="139"/>
       <c r="E117" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
@@ -16762,16 +16765,16 @@
       <c r="CR117" s="70"/>
     </row>
     <row r="118" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="126"/>
-      <c r="B118" s="156"/>
-      <c r="C118" s="127"/>
-      <c r="D118" s="159"/>
+      <c r="A118" s="132"/>
+      <c r="B118" s="133"/>
+      <c r="C118" s="134"/>
+      <c r="D118" s="140"/>
       <c r="E118" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
@@ -16864,35 +16867,35 @@
       <c r="CR118" s="70"/>
     </row>
     <row r="119" spans="1:96" ht="100.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="126"/>
-      <c r="B119" s="156"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="158" t="s">
-        <v>103</v>
+      <c r="A119" s="132"/>
+      <c r="B119" s="133"/>
+      <c r="C119" s="134"/>
+      <c r="D119" s="138" t="s">
+        <v>102</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H119" s="24"/>
       <c r="I119" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J119" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K119" s="24" t="s">
         <v>205</v>
-      </c>
-      <c r="K119" s="24" t="s">
-        <v>206</v>
       </c>
       <c r="L119" s="24"/>
       <c r="M119" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="N119" s="79" t="s">
         <v>207</v>
-      </c>
-      <c r="N119" s="79" t="s">
-        <v>208</v>
       </c>
       <c r="O119" s="75"/>
       <c r="P119" s="68"/>
@@ -16978,16 +16981,16 @@
       <c r="CR119" s="70"/>
     </row>
     <row r="120" spans="1:96" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="126"/>
-      <c r="B120" s="156"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="159"/>
+      <c r="A120" s="132"/>
+      <c r="B120" s="133"/>
+      <c r="C120" s="134"/>
+      <c r="D120" s="140"/>
       <c r="E120" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
@@ -17080,18 +17083,18 @@
       <c r="CR120" s="70"/>
     </row>
     <row r="121" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="126"/>
-      <c r="B121" s="156"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="158" t="s">
-        <v>122</v>
+      <c r="A121" s="132"/>
+      <c r="B121" s="133"/>
+      <c r="C121" s="134"/>
+      <c r="D121" s="138" t="s">
+        <v>121</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
@@ -17184,16 +17187,16 @@
       <c r="CR121" s="70"/>
     </row>
     <row r="122" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="126"/>
-      <c r="B122" s="156"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="161"/>
+      <c r="A122" s="132"/>
+      <c r="B122" s="133"/>
+      <c r="C122" s="134"/>
+      <c r="D122" s="139"/>
       <c r="E122" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
@@ -17286,16 +17289,16 @@
       <c r="CR122" s="70"/>
     </row>
     <row r="123" spans="1:96" ht="162" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="126"/>
-      <c r="B123" s="156"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="161"/>
+      <c r="A123" s="132"/>
+      <c r="B123" s="133"/>
+      <c r="C123" s="134"/>
+      <c r="D123" s="139"/>
       <c r="E123" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
@@ -17388,16 +17391,16 @@
       <c r="CR123" s="70"/>
     </row>
     <row r="124" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="126"/>
-      <c r="B124" s="156"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="161"/>
+      <c r="A124" s="132"/>
+      <c r="B124" s="133"/>
+      <c r="C124" s="134"/>
+      <c r="D124" s="139"/>
       <c r="E124" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
@@ -17490,16 +17493,16 @@
       <c r="CR124" s="70"/>
     </row>
     <row r="125" spans="1:96" ht="162" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="126"/>
-      <c r="B125" s="156"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="161"/>
+      <c r="A125" s="132"/>
+      <c r="B125" s="133"/>
+      <c r="C125" s="134"/>
+      <c r="D125" s="139"/>
       <c r="E125" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
@@ -17592,16 +17595,16 @@
       <c r="CR125" s="70"/>
     </row>
     <row r="126" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="126"/>
-      <c r="B126" s="156"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="161"/>
+      <c r="A126" s="132"/>
+      <c r="B126" s="133"/>
+      <c r="C126" s="134"/>
+      <c r="D126" s="139"/>
       <c r="E126" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="24"/>
@@ -17694,16 +17697,16 @@
       <c r="CR126" s="70"/>
     </row>
     <row r="127" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="126"/>
-      <c r="B127" s="156"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="161"/>
+      <c r="A127" s="132"/>
+      <c r="B127" s="133"/>
+      <c r="C127" s="134"/>
+      <c r="D127" s="139"/>
       <c r="E127" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
@@ -17796,16 +17799,16 @@
       <c r="CR127" s="70"/>
     </row>
     <row r="128" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="126"/>
-      <c r="B128" s="156"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="161"/>
+      <c r="A128" s="132"/>
+      <c r="B128" s="133"/>
+      <c r="C128" s="134"/>
+      <c r="D128" s="139"/>
       <c r="E128" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
@@ -17898,16 +17901,16 @@
       <c r="CR128" s="70"/>
     </row>
     <row r="129" spans="1:96" ht="175.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="126"/>
-      <c r="B129" s="156"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="161"/>
+      <c r="A129" s="132"/>
+      <c r="B129" s="133"/>
+      <c r="C129" s="134"/>
+      <c r="D129" s="139"/>
       <c r="E129" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="24"/>
@@ -18000,16 +18003,16 @@
       <c r="CR129" s="70"/>
     </row>
     <row r="130" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="126"/>
-      <c r="B130" s="156"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="161"/>
+      <c r="A130" s="132"/>
+      <c r="B130" s="133"/>
+      <c r="C130" s="134"/>
+      <c r="D130" s="139"/>
       <c r="E130" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="24"/>
@@ -18102,16 +18105,16 @@
       <c r="CR130" s="70"/>
     </row>
     <row r="131" spans="1:96" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="126"/>
-      <c r="B131" s="156"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="161"/>
+      <c r="A131" s="132"/>
+      <c r="B131" s="133"/>
+      <c r="C131" s="134"/>
+      <c r="D131" s="139"/>
       <c r="E131" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H131" s="24"/>
       <c r="I131" s="24"/>
@@ -18204,16 +18207,16 @@
       <c r="CR131" s="70"/>
     </row>
     <row r="132" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="126"/>
-      <c r="B132" s="156"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="159"/>
+      <c r="A132" s="132"/>
+      <c r="B132" s="133"/>
+      <c r="C132" s="134"/>
+      <c r="D132" s="140"/>
       <c r="E132" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H132" s="24"/>
       <c r="I132" s="24"/>
@@ -18306,18 +18309,18 @@
       <c r="CR132" s="70"/>
     </row>
     <row r="133" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="128"/>
-      <c r="B133" s="157"/>
-      <c r="C133" s="129"/>
+      <c r="A133" s="135"/>
+      <c r="B133" s="136"/>
+      <c r="C133" s="137"/>
       <c r="D133" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H133" s="24"/>
       <c r="I133" s="24"/>
@@ -18410,20 +18413,20 @@
       <c r="CR133" s="70"/>
     </row>
     <row r="134" spans="1:96" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="124" t="s">
+      <c r="A134" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" s="130"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B134" s="155"/>
-      <c r="C134" s="125"/>
-      <c r="D134" s="52" t="s">
+      <c r="E134" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>227</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
@@ -18516,14 +18519,14 @@
       <c r="CR134" s="70"/>
     </row>
     <row r="135" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="126"/>
-      <c r="B135" s="156"/>
-      <c r="C135" s="127"/>
+      <c r="A135" s="132"/>
+      <c r="B135" s="133"/>
+      <c r="C135" s="134"/>
       <c r="D135" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="25"/>
@@ -18618,18 +18621,18 @@
       <c r="CR135" s="70"/>
     </row>
     <row r="136" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="128"/>
-      <c r="B136" s="157"/>
-      <c r="C136" s="129"/>
+      <c r="A136" s="135"/>
+      <c r="B136" s="136"/>
+      <c r="C136" s="137"/>
       <c r="D136" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
@@ -18721,34 +18724,34 @@
       <c r="CQ136" s="70"/>
       <c r="CR136" s="70"/>
     </row>
-    <row r="137" spans="1:96" s="121" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="121" t="s">
+    <row r="137" spans="1:96" s="141" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="130"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="138" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="155"/>
-      <c r="C138" s="125"/>
-      <c r="D138" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F138" s="163"/>
-      <c r="G138" s="166" t="s">
-        <v>405</v>
-      </c>
-      <c r="H138" s="167"/>
-      <c r="I138" s="167"/>
-      <c r="J138" s="167"/>
-      <c r="K138" s="167"/>
-      <c r="L138" s="167"/>
-      <c r="M138" s="170"/>
-      <c r="N138" s="173"/>
+      <c r="F138" s="166"/>
+      <c r="G138" s="169" t="s">
+        <v>404</v>
+      </c>
+      <c r="H138" s="172"/>
+      <c r="I138" s="172"/>
+      <c r="J138" s="172"/>
+      <c r="K138" s="172"/>
+      <c r="L138" s="172"/>
+      <c r="M138" s="175"/>
+      <c r="N138" s="178"/>
       <c r="O138" s="76"/>
       <c r="P138" s="71"/>
       <c r="Q138" s="71"/>
@@ -18833,22 +18836,22 @@
       <c r="CR138" s="70"/>
     </row>
     <row r="139" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="126"/>
-      <c r="B139" s="156"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="131"/>
+      <c r="A139" s="132"/>
+      <c r="B139" s="133"/>
+      <c r="C139" s="134"/>
+      <c r="D139" s="163"/>
       <c r="E139" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" s="164"/>
-      <c r="G139" s="135"/>
-      <c r="H139" s="168"/>
-      <c r="I139" s="168"/>
-      <c r="J139" s="168"/>
-      <c r="K139" s="168"/>
-      <c r="L139" s="168"/>
-      <c r="M139" s="171"/>
-      <c r="N139" s="174"/>
+        <v>232</v>
+      </c>
+      <c r="F139" s="167"/>
+      <c r="G139" s="170"/>
+      <c r="H139" s="173"/>
+      <c r="I139" s="173"/>
+      <c r="J139" s="173"/>
+      <c r="K139" s="173"/>
+      <c r="L139" s="173"/>
+      <c r="M139" s="176"/>
+      <c r="N139" s="179"/>
       <c r="O139" s="76"/>
       <c r="P139" s="71"/>
       <c r="Q139" s="71"/>
@@ -18933,22 +18936,22 @@
       <c r="CR139" s="70"/>
     </row>
     <row r="140" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="126"/>
-      <c r="B140" s="156"/>
-      <c r="C140" s="127"/>
-      <c r="D140" s="131"/>
+      <c r="A140" s="132"/>
+      <c r="B140" s="133"/>
+      <c r="C140" s="134"/>
+      <c r="D140" s="163"/>
       <c r="E140" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F140" s="164"/>
-      <c r="G140" s="135"/>
-      <c r="H140" s="168"/>
-      <c r="I140" s="168"/>
-      <c r="J140" s="168"/>
-      <c r="K140" s="168"/>
-      <c r="L140" s="168"/>
-      <c r="M140" s="171"/>
-      <c r="N140" s="174"/>
+        <v>233</v>
+      </c>
+      <c r="F140" s="167"/>
+      <c r="G140" s="170"/>
+      <c r="H140" s="173"/>
+      <c r="I140" s="173"/>
+      <c r="J140" s="173"/>
+      <c r="K140" s="173"/>
+      <c r="L140" s="173"/>
+      <c r="M140" s="176"/>
+      <c r="N140" s="179"/>
       <c r="O140" s="76"/>
       <c r="P140" s="71"/>
       <c r="Q140" s="71"/>
@@ -19033,22 +19036,22 @@
       <c r="CR140" s="70"/>
     </row>
     <row r="141" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="126"/>
-      <c r="B141" s="156"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="131"/>
+      <c r="A141" s="132"/>
+      <c r="B141" s="133"/>
+      <c r="C141" s="134"/>
+      <c r="D141" s="163"/>
       <c r="E141" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="F141" s="164"/>
-      <c r="G141" s="135"/>
-      <c r="H141" s="168"/>
-      <c r="I141" s="168"/>
-      <c r="J141" s="168"/>
-      <c r="K141" s="168"/>
-      <c r="L141" s="168"/>
-      <c r="M141" s="171"/>
-      <c r="N141" s="174"/>
+        <v>234</v>
+      </c>
+      <c r="F141" s="167"/>
+      <c r="G141" s="170"/>
+      <c r="H141" s="173"/>
+      <c r="I141" s="173"/>
+      <c r="J141" s="173"/>
+      <c r="K141" s="173"/>
+      <c r="L141" s="173"/>
+      <c r="M141" s="176"/>
+      <c r="N141" s="179"/>
       <c r="O141" s="76"/>
       <c r="P141" s="71"/>
       <c r="Q141" s="71"/>
@@ -19133,22 +19136,22 @@
       <c r="CR141" s="70"/>
     </row>
     <row r="142" spans="1:96" ht="173.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="126"/>
-      <c r="B142" s="156"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="162"/>
+      <c r="A142" s="132"/>
+      <c r="B142" s="133"/>
+      <c r="C142" s="134"/>
+      <c r="D142" s="164"/>
       <c r="E142" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="F142" s="165"/>
-      <c r="G142" s="136"/>
-      <c r="H142" s="169"/>
-      <c r="I142" s="169"/>
-      <c r="J142" s="169"/>
-      <c r="K142" s="169"/>
-      <c r="L142" s="169"/>
-      <c r="M142" s="172"/>
-      <c r="N142" s="175"/>
+        <v>235</v>
+      </c>
+      <c r="F142" s="168"/>
+      <c r="G142" s="171"/>
+      <c r="H142" s="174"/>
+      <c r="I142" s="174"/>
+      <c r="J142" s="174"/>
+      <c r="K142" s="174"/>
+      <c r="L142" s="174"/>
+      <c r="M142" s="177"/>
+      <c r="N142" s="180"/>
       <c r="O142" s="76"/>
       <c r="P142" s="71"/>
       <c r="Q142" s="71"/>
@@ -19233,16 +19236,16 @@
       <c r="CR142" s="70"/>
     </row>
     <row r="143" spans="1:96" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="126"/>
-      <c r="B143" s="156"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="132"/>
+      <c r="A143" s="132"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="134"/>
+      <c r="D143" s="165"/>
       <c r="E143" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
@@ -19335,18 +19338,18 @@
       <c r="CR143" s="70"/>
     </row>
     <row r="144" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="126"/>
-      <c r="B144" s="156"/>
-      <c r="C144" s="127"/>
-      <c r="D144" s="130" t="s">
-        <v>122</v>
+      <c r="A144" s="132"/>
+      <c r="B144" s="133"/>
+      <c r="C144" s="134"/>
+      <c r="D144" s="162" t="s">
+        <v>121</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
@@ -19439,16 +19442,16 @@
       <c r="CR144" s="70"/>
     </row>
     <row r="145" spans="1:96" ht="270" x14ac:dyDescent="0.25">
-      <c r="A145" s="126"/>
-      <c r="B145" s="156"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="131"/>
+      <c r="A145" s="132"/>
+      <c r="B145" s="133"/>
+      <c r="C145" s="134"/>
+      <c r="D145" s="163"/>
       <c r="E145" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
@@ -19541,16 +19544,16 @@
       <c r="CR145" s="70"/>
     </row>
     <row r="146" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="126"/>
-      <c r="B146" s="156"/>
-      <c r="C146" s="127"/>
-      <c r="D146" s="131"/>
+      <c r="A146" s="132"/>
+      <c r="B146" s="133"/>
+      <c r="C146" s="134"/>
+      <c r="D146" s="163"/>
       <c r="E146" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F146" s="20"/>
       <c r="G146" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
@@ -19643,16 +19646,16 @@
       <c r="CR146" s="70"/>
     </row>
     <row r="147" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="126"/>
-      <c r="B147" s="156"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="131"/>
+      <c r="A147" s="132"/>
+      <c r="B147" s="133"/>
+      <c r="C147" s="134"/>
+      <c r="D147" s="163"/>
       <c r="E147" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F147" s="20"/>
       <c r="G147" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
@@ -19745,16 +19748,16 @@
       <c r="CR147" s="70"/>
     </row>
     <row r="148" spans="1:96" ht="311.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="126"/>
-      <c r="B148" s="156"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="131"/>
+      <c r="A148" s="132"/>
+      <c r="B148" s="133"/>
+      <c r="C148" s="134"/>
+      <c r="D148" s="163"/>
       <c r="E148" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F148" s="20"/>
       <c r="G148" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
@@ -19847,16 +19850,16 @@
       <c r="CR148" s="70"/>
     </row>
     <row r="149" spans="1:96" ht="364.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="126"/>
-      <c r="B149" s="156"/>
-      <c r="C149" s="127"/>
-      <c r="D149" s="131"/>
+      <c r="A149" s="132"/>
+      <c r="B149" s="133"/>
+      <c r="C149" s="134"/>
+      <c r="D149" s="163"/>
       <c r="E149" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
@@ -19949,16 +19952,16 @@
       <c r="CR149" s="70"/>
     </row>
     <row r="150" spans="1:96" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="126"/>
-      <c r="B150" s="156"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="131"/>
+      <c r="A150" s="132"/>
+      <c r="B150" s="133"/>
+      <c r="C150" s="134"/>
+      <c r="D150" s="163"/>
       <c r="E150" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F150" s="20"/>
       <c r="G150" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
@@ -20051,16 +20054,16 @@
       <c r="CR150" s="70"/>
     </row>
     <row r="151" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="126"/>
-      <c r="B151" s="156"/>
-      <c r="C151" s="127"/>
-      <c r="D151" s="131"/>
+      <c r="A151" s="132"/>
+      <c r="B151" s="133"/>
+      <c r="C151" s="134"/>
+      <c r="D151" s="163"/>
       <c r="E151" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F151" s="20"/>
       <c r="G151" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
@@ -20153,16 +20156,16 @@
       <c r="CR151" s="70"/>
     </row>
     <row r="152" spans="1:96" ht="310.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="126"/>
-      <c r="B152" s="156"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="131"/>
+      <c r="A152" s="132"/>
+      <c r="B152" s="133"/>
+      <c r="C152" s="134"/>
+      <c r="D152" s="163"/>
       <c r="E152" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F152" s="20"/>
       <c r="G152" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
@@ -20255,16 +20258,16 @@
       <c r="CR152" s="70"/>
     </row>
     <row r="153" spans="1:96" ht="351" x14ac:dyDescent="0.25">
-      <c r="A153" s="126"/>
-      <c r="B153" s="156"/>
-      <c r="C153" s="127"/>
-      <c r="D153" s="132"/>
+      <c r="A153" s="132"/>
+      <c r="B153" s="133"/>
+      <c r="C153" s="134"/>
+      <c r="D153" s="165"/>
       <c r="E153" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
@@ -20357,18 +20360,18 @@
       <c r="CR153" s="70"/>
     </row>
     <row r="154" spans="1:96" ht="81" x14ac:dyDescent="0.25">
-      <c r="A154" s="126"/>
-      <c r="B154" s="156"/>
-      <c r="C154" s="127"/>
+      <c r="A154" s="132"/>
+      <c r="B154" s="133"/>
+      <c r="C154" s="134"/>
       <c r="D154" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F154" s="20"/>
       <c r="G154" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
@@ -20461,18 +20464,18 @@
       <c r="CR154" s="70"/>
     </row>
     <row r="155" spans="1:96" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="126"/>
-      <c r="B155" s="156"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="158" t="s">
-        <v>103</v>
+      <c r="A155" s="132"/>
+      <c r="B155" s="133"/>
+      <c r="C155" s="134"/>
+      <c r="D155" s="138" t="s">
+        <v>102</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F155" s="20"/>
       <c r="G155" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
@@ -20565,16 +20568,16 @@
       <c r="CR155" s="70"/>
     </row>
     <row r="156" spans="1:96" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="126"/>
-      <c r="B156" s="156"/>
-      <c r="C156" s="127"/>
-      <c r="D156" s="159"/>
+      <c r="A156" s="132"/>
+      <c r="B156" s="133"/>
+      <c r="C156" s="134"/>
+      <c r="D156" s="140"/>
       <c r="E156" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F156" s="20"/>
       <c r="G156" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
@@ -20667,18 +20670,18 @@
       <c r="CR156" s="70"/>
     </row>
     <row r="157" spans="1:96" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="128"/>
-      <c r="B157" s="157"/>
-      <c r="C157" s="129"/>
+      <c r="A157" s="135"/>
+      <c r="B157" s="136"/>
+      <c r="C157" s="137"/>
       <c r="D157" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
@@ -20771,20 +20774,20 @@
       <c r="CR157" s="70"/>
     </row>
     <row r="158" spans="1:96" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="124" t="s">
+      <c r="A158" s="129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B158" s="130"/>
+      <c r="C158" s="131"/>
+      <c r="D158" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="E158" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="B158" s="155"/>
-      <c r="C158" s="125"/>
-      <c r="D158" s="158" t="s">
-        <v>60</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>257</v>
       </c>
       <c r="F158" s="20"/>
       <c r="G158" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
@@ -20877,16 +20880,16 @@
       <c r="CR158" s="70"/>
     </row>
     <row r="159" spans="1:96" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="126"/>
-      <c r="B159" s="156"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="161"/>
+      <c r="A159" s="132"/>
+      <c r="B159" s="133"/>
+      <c r="C159" s="134"/>
+      <c r="D159" s="139"/>
       <c r="E159" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F159" s="20"/>
       <c r="G159" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
@@ -20979,16 +20982,16 @@
       <c r="CR159" s="70"/>
     </row>
     <row r="160" spans="1:96" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="126"/>
-      <c r="B160" s="156"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="161"/>
+      <c r="A160" s="132"/>
+      <c r="B160" s="133"/>
+      <c r="C160" s="134"/>
+      <c r="D160" s="139"/>
       <c r="E160" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F160" s="20"/>
       <c r="G160" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
@@ -21081,16 +21084,16 @@
       <c r="CR160" s="70"/>
     </row>
     <row r="161" spans="1:96" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="128"/>
-      <c r="B161" s="157"/>
-      <c r="C161" s="129"/>
-      <c r="D161" s="159"/>
+      <c r="A161" s="135"/>
+      <c r="B161" s="136"/>
+      <c r="C161" s="137"/>
+      <c r="D161" s="140"/>
       <c r="E161" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F161" s="20"/>
       <c r="G161" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -21182,14 +21185,14 @@
       <c r="CQ161" s="70"/>
       <c r="CR161" s="70"/>
     </row>
-    <row r="162" spans="1:96" s="121" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="121" t="s">
-        <v>265</v>
+    <row r="162" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="141" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A163" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B163" s="57"/>
       <c r="C163" s="28"/>
@@ -21291,7 +21294,7 @@
     </row>
     <row r="164" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A164" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B164" s="57"/>
       <c r="C164" s="28"/>
@@ -21393,7 +21396,7 @@
     </row>
     <row r="165" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A165" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B165" s="57"/>
       <c r="C165" s="28"/>
@@ -21493,7 +21496,7 @@
     </row>
     <row r="166" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A166" s="83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B166" s="57"/>
       <c r="C166" s="28"/>
@@ -21593,7 +21596,7 @@
     </row>
     <row r="167" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A167" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B167" s="57"/>
       <c r="C167" s="28"/>
@@ -22057,6 +22060,8 @@
       <c r="AW175" s="6"/>
     </row>
     <row r="176" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
       <c r="E176" s="44"/>
       <c r="F176" s="49"/>
       <c r="H176" s="13"/>
@@ -24256,6 +24261,7 @@
       <c r="AW223" s="6"/>
     </row>
     <row r="224" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E224" s="7"/>
       <c r="F224" s="49"/>
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
@@ -66560,6 +66566,83 @@
     <row r="1166" spans="6:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="BX5:CR5"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:N6"/>
+    <mergeCell ref="O5:AS5"/>
+    <mergeCell ref="AT5:BW5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:B99"/>
+    <mergeCell ref="C23:C94"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="D61:D73"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="N85:N88"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="J85:J88"/>
+    <mergeCell ref="K85:K88"/>
+    <mergeCell ref="L85:L88"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D144:D153"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="A100:XFD100"/>
+    <mergeCell ref="A101:C133"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D121:D132"/>
+    <mergeCell ref="J138:J142"/>
+    <mergeCell ref="K138:K142"/>
+    <mergeCell ref="L138:L142"/>
+    <mergeCell ref="M138:M142"/>
+    <mergeCell ref="N138:N142"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="F138:F142"/>
+    <mergeCell ref="G138:G142"/>
+    <mergeCell ref="H138:H142"/>
+    <mergeCell ref="I138:I142"/>
     <mergeCell ref="A158:C161"/>
     <mergeCell ref="D158:D161"/>
     <mergeCell ref="A162:XFD162"/>
@@ -66576,87 +66659,10 @@
     <mergeCell ref="A134:C136"/>
     <mergeCell ref="A137:XFD137"/>
     <mergeCell ref="A138:C157"/>
-    <mergeCell ref="D138:D143"/>
-    <mergeCell ref="F138:F142"/>
-    <mergeCell ref="G138:G142"/>
-    <mergeCell ref="H138:H142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="J138:J142"/>
-    <mergeCell ref="K138:K142"/>
-    <mergeCell ref="L138:L142"/>
-    <mergeCell ref="M138:M142"/>
-    <mergeCell ref="N138:N142"/>
-    <mergeCell ref="D144:D153"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="A100:XFD100"/>
-    <mergeCell ref="A101:C133"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D121:D132"/>
-    <mergeCell ref="N85:N88"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="J85:J88"/>
-    <mergeCell ref="K85:K88"/>
-    <mergeCell ref="L85:L88"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="A22:B99"/>
-    <mergeCell ref="C23:C94"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="D61:D73"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="BX5:CR5"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:N6"/>
-    <mergeCell ref="O5:AS5"/>
-    <mergeCell ref="AT5:BW5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H138:N161 D79:D81 D9:D20 D43 H9:N20 D22:D23 H39:H53 H22:N23 D47:D51 J55:N60 D56 D61 H55:H73 J79:N82 H84 J84:N84 D85 H85:N85 H86:H88 D89 H89:N89 H90:H93 J90:N93 H94:N94 D95 H95:H99 J95:N99 D99 J38:N53 D38:D39 H79:H82 H104:N106 H109:N136">
-    <cfRule type="colorScale" priority="685">
+  <conditionalFormatting sqref="D24 H24 H29:H33 H35 J24:N36">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -66664,7 +66670,7 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="686">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -66683,6 +66689,78 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H78 D74 J74:N78">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:N103">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107:N107 H108 J108:N108">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138:N161 D79:D81 D9:D20 D43 H9:N20 D22:D23 H39:H53 H22:N23 D47:D51 J55:N60 D56 D61 H55:H73 J79:N82 H84 J84:N84 D85 H85:N85 H86:H88 D89 H89:N89 H90:H93 J90:N93 H94:N94 D95 H95:H99 J95:N99 D99 J38:N53 D38:D39 H79:H82 H104:N106 H109:N136">
+    <cfRule type="colorScale" priority="685">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="686">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -66827,6 +66905,24 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:N37 H37">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -67161,96 +67257,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24 H24 H29:H33 H35 J24:N36">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:N37 H37">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H78 D74 J74:N78">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101:N103">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:N107 H108 J108:N108">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>

--- a/WBS_2025_12_03(마지막_작업-황동주-조해성).xlsx
+++ b/WBS_2025_12_03(마지막_작업-황동주-조해성).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\memberInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42ED41-13C6-42B7-80C2-36ADC188E177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC61C96-1505-407A-AACD-64E74C3C6C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="487">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -2564,6 +2564,14 @@
 - 스크롤 영역 DIM 처리 (모바일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3749,10 +3757,70 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,32 +3829,158 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3847,192 +4041,6 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4313,8 +4321,8 @@
   </sheetPr>
   <dimension ref="A1:CR1166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CP19" sqref="CP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.140625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4497,15 +4505,15 @@
       <c r="CR2" s="40"/>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="219" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="9"/>
       <c r="G3" s="51"/>
       <c r="H3" s="10"/>
@@ -4599,15 +4607,15 @@
       <c r="CR3" s="10"/>
     </row>
     <row r="4" spans="1:96" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="221" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="34"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
@@ -4658,134 +4666,134 @@
       <c r="BA4" s="1"/>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A5" s="211"/>
-      <c r="B5" s="213"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="211" t="s">
+      <c r="E5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="208" t="s">
+      <c r="F5" s="134"/>
+      <c r="G5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="H5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="211" t="s">
+      <c r="I5" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="217" t="s">
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="206"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
-      <c r="AK5" s="206"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="206"/>
-      <c r="AN5" s="206"/>
-      <c r="AO5" s="206"/>
-      <c r="AP5" s="206"/>
-      <c r="AQ5" s="206"/>
-      <c r="AR5" s="206"/>
-      <c r="AS5" s="207"/>
-      <c r="AT5" s="217" t="s">
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="142"/>
+      <c r="AG5" s="142"/>
+      <c r="AH5" s="142"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="142"/>
+      <c r="AK5" s="142"/>
+      <c r="AL5" s="142"/>
+      <c r="AM5" s="142"/>
+      <c r="AN5" s="142"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142"/>
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="AU5" s="206"/>
-      <c r="AV5" s="206"/>
-      <c r="AW5" s="206"/>
-      <c r="AX5" s="206"/>
-      <c r="AY5" s="206"/>
-      <c r="AZ5" s="206"/>
-      <c r="BA5" s="206"/>
-      <c r="BB5" s="206"/>
-      <c r="BC5" s="206"/>
-      <c r="BD5" s="206"/>
-      <c r="BE5" s="206"/>
-      <c r="BF5" s="206"/>
-      <c r="BG5" s="206"/>
-      <c r="BH5" s="206"/>
-      <c r="BI5" s="206"/>
-      <c r="BJ5" s="206"/>
-      <c r="BK5" s="206"/>
-      <c r="BL5" s="206"/>
-      <c r="BM5" s="206"/>
-      <c r="BN5" s="206"/>
-      <c r="BO5" s="206"/>
-      <c r="BP5" s="206"/>
-      <c r="BQ5" s="206"/>
-      <c r="BR5" s="206"/>
-      <c r="BS5" s="206"/>
-      <c r="BT5" s="206"/>
-      <c r="BU5" s="206"/>
-      <c r="BV5" s="206"/>
-      <c r="BW5" s="206"/>
-      <c r="BX5" s="206" t="s">
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="142"/>
+      <c r="AX5" s="142"/>
+      <c r="AY5" s="142"/>
+      <c r="AZ5" s="142"/>
+      <c r="BA5" s="142"/>
+      <c r="BB5" s="142"/>
+      <c r="BC5" s="142"/>
+      <c r="BD5" s="142"/>
+      <c r="BE5" s="142"/>
+      <c r="BF5" s="142"/>
+      <c r="BG5" s="142"/>
+      <c r="BH5" s="142"/>
+      <c r="BI5" s="142"/>
+      <c r="BJ5" s="142"/>
+      <c r="BK5" s="142"/>
+      <c r="BL5" s="142"/>
+      <c r="BM5" s="142"/>
+      <c r="BN5" s="142"/>
+      <c r="BO5" s="142"/>
+      <c r="BP5" s="142"/>
+      <c r="BQ5" s="142"/>
+      <c r="BR5" s="142"/>
+      <c r="BS5" s="142"/>
+      <c r="BT5" s="142"/>
+      <c r="BU5" s="142"/>
+      <c r="BV5" s="142"/>
+      <c r="BW5" s="142"/>
+      <c r="BX5" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="BY5" s="206"/>
-      <c r="BZ5" s="206"/>
-      <c r="CA5" s="206"/>
-      <c r="CB5" s="206"/>
-      <c r="CC5" s="206"/>
-      <c r="CD5" s="206"/>
-      <c r="CE5" s="206"/>
-      <c r="CF5" s="206"/>
-      <c r="CG5" s="206"/>
-      <c r="CH5" s="206"/>
-      <c r="CI5" s="206"/>
-      <c r="CJ5" s="206"/>
-      <c r="CK5" s="206"/>
-      <c r="CL5" s="206"/>
-      <c r="CM5" s="206"/>
-      <c r="CN5" s="206"/>
-      <c r="CO5" s="206"/>
-      <c r="CP5" s="206"/>
-      <c r="CQ5" s="206"/>
-      <c r="CR5" s="207"/>
+      <c r="BY5" s="142"/>
+      <c r="BZ5" s="142"/>
+      <c r="CA5" s="142"/>
+      <c r="CB5" s="142"/>
+      <c r="CC5" s="142"/>
+      <c r="CD5" s="142"/>
+      <c r="CE5" s="142"/>
+      <c r="CF5" s="142"/>
+      <c r="CG5" s="142"/>
+      <c r="CH5" s="142"/>
+      <c r="CI5" s="142"/>
+      <c r="CJ5" s="142"/>
+      <c r="CK5" s="142"/>
+      <c r="CL5" s="142"/>
+      <c r="CM5" s="142"/>
+      <c r="CN5" s="142"/>
+      <c r="CO5" s="142"/>
+      <c r="CP5" s="142"/>
+      <c r="CQ5" s="142"/>
+      <c r="CR5" s="143"/>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A6" s="222"/>
-      <c r="B6" s="223"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="215"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="216"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="138"/>
       <c r="O6" s="37" t="s">
         <v>12</v>
       </c>
@@ -5034,14 +5042,14 @@
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="36" t="s">
         <v>43</v>
       </c>
@@ -5244,79 +5252,79 @@
         <v>53</v>
       </c>
       <c r="BX7" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY7" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="BY7" s="38" t="s">
+      <c r="CD7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="BZ7" s="38" t="s">
+      <c r="CE7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="CA7" s="38" t="s">
+      <c r="CF7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="CB7" s="38" t="s">
+      <c r="CG7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="CC7" s="38" t="s">
+      <c r="CH7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="CD7" s="38" t="s">
+      <c r="CI7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="CE7" s="38" t="s">
+      <c r="CJ7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="CF7" s="38" t="s">
+      <c r="CK7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="CG7" s="38" t="s">
+      <c r="CL7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="CH7" s="38" t="s">
+      <c r="CM7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="CI7" s="38" t="s">
+      <c r="CN7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="CJ7" s="38" t="s">
+      <c r="CO7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="CK7" s="38" t="s">
+      <c r="CP7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="CL7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="CM7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="CN7" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="CO7" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="CP7" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="CQ7" s="38" t="s">
-        <v>50</v>
+        <v>485</v>
       </c>
       <c r="CR7" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="141" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" s="144" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="144" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="205"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
       <c r="E9" s="14"/>
@@ -5413,10 +5421,10 @@
       <c r="CR9" s="29"/>
     </row>
     <row r="10" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="204" t="s">
+      <c r="A10" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="205"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="22"/>
       <c r="D10" s="18"/>
       <c r="E10" s="16"/>
@@ -5513,10 +5521,10 @@
       <c r="CR10" s="29"/>
     </row>
     <row r="11" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="22"/>
       <c r="D11" s="18" t="s">
         <v>60</v>
@@ -5615,10 +5623,10 @@
       <c r="CR11" s="29"/>
     </row>
     <row r="12" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="205"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="22"/>
       <c r="D12" s="17" t="s">
         <v>62</v>
@@ -5717,10 +5725,10 @@
       <c r="CR12" s="29"/>
     </row>
     <row r="13" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="205"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="22"/>
       <c r="D13" s="18"/>
       <c r="E13" s="16"/>
@@ -5817,10 +5825,10 @@
       <c r="CR13" s="29"/>
     </row>
     <row r="14" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="204" t="s">
+      <c r="A14" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="205"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="22"/>
       <c r="D14" s="18"/>
       <c r="E14" s="16"/>
@@ -5917,10 +5925,10 @@
       <c r="CR14" s="29"/>
     </row>
     <row r="15" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="205"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="22"/>
       <c r="D15" s="18"/>
       <c r="E15" s="16"/>
@@ -6017,10 +6025,10 @@
       <c r="CR15" s="29"/>
     </row>
     <row r="16" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="205"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="22"/>
       <c r="D16" s="18" t="s">
         <v>62</v>
@@ -6119,10 +6127,10 @@
       <c r="CR16" s="29"/>
     </row>
     <row r="17" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="205"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="22"/>
       <c r="D17" s="18" t="s">
         <v>62</v>
@@ -6221,10 +6229,10 @@
       <c r="CR17" s="29"/>
     </row>
     <row r="18" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="205"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
       <c r="E18" s="16"/>
@@ -6321,10 +6329,10 @@
       <c r="CR18" s="29"/>
     </row>
     <row r="19" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="204" t="s">
+      <c r="A19" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="205"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
       <c r="E19" s="16"/>
@@ -6421,10 +6429,10 @@
       <c r="CR19" s="29"/>
     </row>
     <row r="20" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="204" t="s">
+      <c r="A20" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="205"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="22"/>
       <c r="D20" s="18" t="s">
         <v>71</v>
@@ -6522,16 +6530,16 @@
       <c r="CQ20" s="29"/>
       <c r="CR20" s="29"/>
     </row>
-    <row r="21" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="141" t="s">
+    <row r="21" spans="1:96" s="144" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="144" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:96" ht="148.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="18" t="s">
         <v>74</v>
       </c>
@@ -6652,9 +6660,9 @@
       <c r="CR22" s="67"/>
     </row>
     <row r="23" spans="1:96" ht="135" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="162" t="s">
+      <c r="A23" s="152"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="156" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -6762,22 +6770,22 @@
       <c r="CR23" s="67"/>
     </row>
     <row r="24" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="153" t="s">
+      <c r="A24" s="152"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="215" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="103" t="s">
         <v>406</v>
       </c>
-      <c r="F24" s="142" t="s">
+      <c r="F24" s="204" t="s">
         <v>407</v>
       </c>
       <c r="G24" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="H24" s="144" t="s">
+      <c r="H24" s="206" t="s">
         <v>409</v>
       </c>
       <c r="I24" s="94"/>
@@ -6870,18 +6878,18 @@
       <c r="CR24" s="67"/>
     </row>
     <row r="25" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="154"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="216"/>
       <c r="E25" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="F25" s="143"/>
+      <c r="F25" s="205"/>
       <c r="G25" s="104" t="s">
         <v>411</v>
       </c>
-      <c r="H25" s="145"/>
+      <c r="H25" s="207"/>
       <c r="I25" s="94"/>
       <c r="J25" s="105"/>
       <c r="K25" s="105"/>
@@ -6972,18 +6980,18 @@
       <c r="CR25" s="67"/>
     </row>
     <row r="26" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="154"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="216"/>
       <c r="E26" s="103" t="s">
         <v>412</v>
       </c>
-      <c r="F26" s="143"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="104" t="s">
         <v>413</v>
       </c>
-      <c r="H26" s="145"/>
+      <c r="H26" s="207"/>
       <c r="I26" s="94"/>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
@@ -7074,18 +7082,18 @@
       <c r="CR26" s="67"/>
     </row>
     <row r="27" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="154"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="216"/>
       <c r="E27" s="103" t="s">
         <v>414</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="104" t="s">
         <v>415</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="207"/>
       <c r="I27" s="94"/>
       <c r="J27" s="105"/>
       <c r="K27" s="105"/>
@@ -7176,18 +7184,18 @@
       <c r="CR27" s="67"/>
     </row>
     <row r="28" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="154"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="216"/>
       <c r="E28" s="107" t="s">
         <v>416</v>
       </c>
-      <c r="F28" s="143"/>
+      <c r="F28" s="205"/>
       <c r="G28" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="H28" s="146"/>
+      <c r="H28" s="208"/>
       <c r="I28" s="94"/>
       <c r="J28" s="105"/>
       <c r="K28" s="105"/>
@@ -7278,14 +7286,14 @@
       <c r="CR28" s="67"/>
     </row>
     <row r="29" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="154"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="216"/>
       <c r="E29" s="103" t="s">
         <v>418</v>
       </c>
-      <c r="F29" s="147" t="s">
+      <c r="F29" s="209" t="s">
         <v>419</v>
       </c>
       <c r="G29" s="104" t="s">
@@ -7384,14 +7392,14 @@
       <c r="CR29" s="67"/>
     </row>
     <row r="30" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="216"/>
       <c r="E30" s="103" t="s">
         <v>422</v>
       </c>
-      <c r="F30" s="148"/>
+      <c r="F30" s="210"/>
       <c r="G30" s="104" t="s">
         <v>423</v>
       </c>
@@ -7488,14 +7496,14 @@
       <c r="CR30" s="67"/>
     </row>
     <row r="31" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="154"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="216"/>
       <c r="E31" s="103" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="148"/>
+      <c r="F31" s="210"/>
       <c r="G31" s="104" t="s">
         <v>426</v>
       </c>
@@ -7592,14 +7600,14 @@
       <c r="CR31" s="67"/>
     </row>
     <row r="32" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="154"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="216"/>
       <c r="E32" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="F32" s="148"/>
+      <c r="F32" s="210"/>
       <c r="G32" s="104" t="s">
         <v>428</v>
       </c>
@@ -7696,18 +7704,18 @@
       <c r="CR32" s="67"/>
     </row>
     <row r="33" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="154"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="216"/>
       <c r="E33" s="103" t="s">
         <v>429</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="210"/>
       <c r="G33" s="104" t="s">
         <v>430</v>
       </c>
-      <c r="H33" s="147" t="s">
+      <c r="H33" s="209" t="s">
         <v>421</v>
       </c>
       <c r="I33" s="94"/>
@@ -7800,18 +7808,18 @@
       <c r="CR33" s="67"/>
     </row>
     <row r="34" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="154"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="216"/>
       <c r="E34" s="103" t="s">
         <v>431</v>
       </c>
-      <c r="F34" s="149"/>
+      <c r="F34" s="211"/>
       <c r="G34" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="H34" s="149"/>
+      <c r="H34" s="211"/>
       <c r="I34" s="94"/>
       <c r="J34" s="105"/>
       <c r="K34" s="105"/>
@@ -7902,20 +7910,20 @@
       <c r="CR34" s="67"/>
     </row>
     <row r="35" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="154"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="103" t="s">
         <v>433</v>
       </c>
-      <c r="F35" s="142" t="s">
+      <c r="F35" s="204" t="s">
         <v>434</v>
       </c>
       <c r="G35" s="104" t="s">
         <v>435</v>
       </c>
-      <c r="H35" s="151" t="s">
+      <c r="H35" s="213" t="s">
         <v>436</v>
       </c>
       <c r="I35" s="94"/>
@@ -8008,18 +8016,18 @@
       <c r="CR35" s="67"/>
     </row>
     <row r="36" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="154"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="216"/>
       <c r="E36" s="105" t="s">
         <v>437</v>
       </c>
-      <c r="F36" s="150"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="H36" s="152"/>
+      <c r="H36" s="214"/>
       <c r="I36" s="94"/>
       <c r="J36" s="105"/>
       <c r="K36" s="105"/>
@@ -8110,10 +8118,10 @@
       <c r="CR36" s="67"/>
     </row>
     <row r="37" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="155"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="217"/>
       <c r="E37" s="110" t="s">
         <v>98</v>
       </c>
@@ -8216,25 +8224,25 @@
       <c r="CR37" s="67"/>
     </row>
     <row r="38" spans="1:96" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="162" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="156" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="196" t="s">
+      <c r="F38" s="160" t="s">
         <v>340</v>
       </c>
       <c r="G38" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="H38" s="194" t="s">
+      <c r="H38" s="163" t="s">
         <v>338</v>
       </c>
-      <c r="I38" s="162" t="s">
+      <c r="I38" s="156" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="16" t="s">
@@ -8336,19 +8344,19 @@
       <c r="CR38" s="67"/>
     </row>
     <row r="39" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="193"/>
+      <c r="A39" s="152"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="157"/>
       <c r="E39" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="170"/>
+      <c r="F39" s="161"/>
       <c r="G39" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="H39" s="170"/>
-      <c r="I39" s="193"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="157"/>
       <c r="J39" s="16" t="s">
         <v>339</v>
       </c>
@@ -8448,19 +8456,19 @@
       <c r="CR39" s="67"/>
     </row>
     <row r="40" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="193"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="157"/>
       <c r="E40" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="170"/>
+      <c r="F40" s="161"/>
       <c r="G40" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="H40" s="170"/>
-      <c r="I40" s="193"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="157"/>
       <c r="J40" s="16" t="s">
         <v>341</v>
       </c>
@@ -8560,19 +8568,19 @@
       <c r="CR40" s="67"/>
     </row>
     <row r="41" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="165"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="159"/>
       <c r="E41" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="171"/>
+      <c r="F41" s="162"/>
       <c r="G41" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H41" s="171"/>
-      <c r="I41" s="165"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="159"/>
       <c r="J41" s="16" t="s">
         <v>339</v>
       </c>
@@ -8672,25 +8680,25 @@
       <c r="CR41" s="67"/>
     </row>
     <row r="42" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="162" t="s">
+      <c r="A42" s="152"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="156" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="194" t="s">
+      <c r="F42" s="163" t="s">
         <v>360</v>
       </c>
       <c r="G42" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="H42" s="196" t="s">
+      <c r="H42" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="I42" s="162" t="s">
+      <c r="I42" s="156" t="s">
         <v>77</v>
       </c>
       <c r="J42" s="16"/>
@@ -8782,19 +8790,19 @@
       <c r="CR42" s="67"/>
     </row>
     <row r="43" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="193"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="157"/>
       <c r="E43" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="170"/>
+      <c r="F43" s="161"/>
       <c r="G43" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="H43" s="170"/>
-      <c r="I43" s="193"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="157"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="59"/>
@@ -8884,19 +8892,19 @@
       <c r="CR43" s="67"/>
     </row>
     <row r="44" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
       <c r="E44" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="170"/>
+      <c r="F44" s="161"/>
       <c r="G44" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="H44" s="170"/>
-      <c r="I44" s="193"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="157"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="59"/>
@@ -8986,19 +8994,19 @@
       <c r="CR44" s="67"/>
     </row>
     <row r="45" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="170"/>
+      <c r="F45" s="161"/>
       <c r="G45" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="H45" s="170"/>
-      <c r="I45" s="193"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="157"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="59"/>
@@ -9088,19 +9096,19 @@
       <c r="CR45" s="67"/>
     </row>
     <row r="46" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="165"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="159"/>
       <c r="E46" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="195"/>
+      <c r="F46" s="171"/>
       <c r="G46" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="H46" s="171"/>
-      <c r="I46" s="165" t="s">
+      <c r="H46" s="162"/>
+      <c r="I46" s="159" t="s">
         <v>77</v>
       </c>
       <c r="J46" s="16" t="s">
@@ -9202,9 +9210,9 @@
       <c r="CR46" s="67"/>
     </row>
     <row r="47" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="163"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="158"/>
       <c r="D47" s="81" t="s">
         <v>89</v>
       </c>
@@ -9306,9 +9314,9 @@
       <c r="CR47" s="67"/>
     </row>
     <row r="48" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="163"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="158"/>
       <c r="D48" s="18" t="s">
         <v>60</v>
       </c>
@@ -9410,9 +9418,9 @@
       <c r="CR48" s="67"/>
     </row>
     <row r="49" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="163"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="158"/>
       <c r="D49" s="18" t="s">
         <v>89</v>
       </c>
@@ -9514,9 +9522,9 @@
       <c r="CR49" s="67"/>
     </row>
     <row r="50" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="163"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="158"/>
       <c r="D50" s="18" t="s">
         <v>102</v>
       </c>
@@ -9618,10 +9626,10 @@
       <c r="CR50" s="67"/>
     </row>
     <row r="51" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="162" t="s">
+      <c r="A51" s="152"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="156" t="s">
         <v>89</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -9631,7 +9639,7 @@
       <c r="G51" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="H51" s="196" t="s">
+      <c r="H51" s="160" t="s">
         <v>364</v>
       </c>
       <c r="I51" s="25"/>
@@ -9734,10 +9742,10 @@
       <c r="CR51" s="67"/>
     </row>
     <row r="52" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="193"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="157"/>
       <c r="E52" s="25" t="s">
         <v>105</v>
       </c>
@@ -9745,7 +9753,7 @@
       <c r="G52" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="H52" s="171"/>
+      <c r="H52" s="162"/>
       <c r="I52" s="25"/>
       <c r="J52" s="16" t="s">
         <v>366</v>
@@ -9846,10 +9854,10 @@
       <c r="CR52" s="67"/>
     </row>
     <row r="53" spans="1:96" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="132"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="197"/>
+      <c r="A53" s="152"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="25" t="s">
         <v>131</v>
       </c>
@@ -9857,7 +9865,7 @@
       <c r="G53" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="H53" s="162" t="s">
+      <c r="H53" s="156" t="s">
         <v>365</v>
       </c>
       <c r="I53" s="98"/>
@@ -9960,10 +9968,10 @@
       <c r="CR53" s="67"/>
     </row>
     <row r="54" spans="1:96" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="132"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="198"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="16" t="s">
         <v>99</v>
       </c>
@@ -9971,7 +9979,7 @@
       <c r="G54" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="199"/>
+      <c r="H54" s="166"/>
       <c r="I54" s="98"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
@@ -10062,10 +10070,10 @@
       <c r="CR54" s="67"/>
     </row>
     <row r="55" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="132"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="165"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="153"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="16" t="s">
         <v>125</v>
       </c>
@@ -10166,16 +10174,16 @@
       <c r="CR55" s="67"/>
     </row>
     <row r="56" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="132"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="162" t="s">
+      <c r="A56" s="152"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="156" t="s">
         <v>102</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="200" t="s">
+      <c r="F56" s="167" t="s">
         <v>107</v>
       </c>
       <c r="G56" s="48" t="s">
@@ -10274,14 +10282,14 @@
       <c r="CR56" s="67"/>
     </row>
     <row r="57" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="132"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
       <c r="E57" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="201"/>
+      <c r="F57" s="168"/>
       <c r="G57" s="58" t="s">
         <v>111</v>
       </c>
@@ -10378,14 +10386,14 @@
       <c r="CR57" s="67"/>
     </row>
     <row r="58" spans="1:96" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="132"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
       <c r="E58" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F58" s="201"/>
+      <c r="F58" s="168"/>
       <c r="G58" s="86" t="s">
         <v>114</v>
       </c>
@@ -10482,14 +10490,14 @@
       <c r="CR58" s="67"/>
     </row>
     <row r="59" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="132"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
       <c r="E59" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="201"/>
+      <c r="F59" s="168"/>
       <c r="G59" s="48" t="s">
         <v>117</v>
       </c>
@@ -10586,14 +10594,14 @@
       <c r="CR59" s="67"/>
     </row>
     <row r="60" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="132"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="165"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="159"/>
       <c r="E60" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="202"/>
+      <c r="F60" s="169"/>
       <c r="G60" s="48" t="s">
         <v>120</v>
       </c>
@@ -10690,10 +10698,10 @@
       <c r="CR60" s="67"/>
     </row>
     <row r="61" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="132"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="162" t="s">
+      <c r="A61" s="152"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="156" t="s">
         <v>121</v>
       </c>
       <c r="E61" s="25" t="s">
@@ -10794,10 +10802,10 @@
       <c r="CR61" s="67"/>
     </row>
     <row r="62" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="132"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="A62" s="152"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
       <c r="E62" s="25" t="s">
         <v>293</v>
       </c>
@@ -10904,10 +10912,10 @@
       <c r="CR62" s="67"/>
     </row>
     <row r="63" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="132"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="A63" s="152"/>
+      <c r="B63" s="153"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
       <c r="E63" s="25" t="s">
         <v>294</v>
       </c>
@@ -11006,10 +11014,10 @@
       <c r="CR63" s="67"/>
     </row>
     <row r="64" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="132"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="A64" s="152"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
       <c r="E64" s="25" t="s">
         <v>295</v>
       </c>
@@ -11108,10 +11116,10 @@
       <c r="CR64" s="67"/>
     </row>
     <row r="65" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="132"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
       <c r="E65" s="25" t="s">
         <v>296</v>
       </c>
@@ -11222,10 +11230,10 @@
       <c r="CR65" s="67"/>
     </row>
     <row r="66" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
-      <c r="B66" s="134"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
       <c r="E66" s="25" t="s">
         <v>297</v>
       </c>
@@ -11324,10 +11332,10 @@
       <c r="CR66" s="67"/>
     </row>
     <row r="67" spans="1:96" ht="67.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
-      <c r="B67" s="134"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="A67" s="152"/>
+      <c r="B67" s="153"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
       <c r="E67" s="25" t="s">
         <v>298</v>
       </c>
@@ -11438,10 +11446,10 @@
       <c r="CR67" s="67"/>
     </row>
     <row r="68" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="132"/>
-      <c r="B68" s="134"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
+      <c r="A68" s="152"/>
+      <c r="B68" s="153"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
       <c r="E68" s="16" t="s">
         <v>299</v>
       </c>
@@ -11552,10 +11560,10 @@
       <c r="CR68" s="67"/>
     </row>
     <row r="69" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="132"/>
-      <c r="B69" s="134"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
+      <c r="A69" s="152"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
       <c r="E69" s="16" t="s">
         <v>300</v>
       </c>
@@ -11654,10 +11662,10 @@
       <c r="CR69" s="67"/>
     </row>
     <row r="70" spans="1:96" ht="67.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="132"/>
-      <c r="B70" s="134"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
+      <c r="A70" s="152"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="158"/>
+      <c r="D70" s="158"/>
       <c r="E70" s="87" t="s">
         <v>301</v>
       </c>
@@ -11768,10 +11776,10 @@
       <c r="CR70" s="67"/>
     </row>
     <row r="71" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
-      <c r="B71" s="134"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
+      <c r="A71" s="152"/>
+      <c r="B71" s="153"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="158"/>
       <c r="E71" s="16" t="s">
         <v>302</v>
       </c>
@@ -11882,10 +11890,10 @@
       <c r="CR71" s="67"/>
     </row>
     <row r="72" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="163"/>
-      <c r="D72" s="163"/>
+      <c r="A72" s="152"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="158"/>
       <c r="E72" s="16" t="s">
         <v>303</v>
       </c>
@@ -11984,10 +11992,10 @@
       <c r="CR72" s="67"/>
     </row>
     <row r="73" spans="1:96" ht="67.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="132"/>
-      <c r="B73" s="134"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
+      <c r="A73" s="152"/>
+      <c r="B73" s="153"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="158"/>
       <c r="E73" s="55" t="s">
         <v>304</v>
       </c>
@@ -12098,10 +12106,10 @@
       <c r="CR73" s="67"/>
     </row>
     <row r="74" spans="1:96" ht="81" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="132"/>
-      <c r="B74" s="134"/>
-      <c r="C74" s="193"/>
-      <c r="D74" s="156" t="s">
+      <c r="A74" s="152"/>
+      <c r="B74" s="153"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="218" t="s">
         <v>439</v>
       </c>
       <c r="E74" s="105" t="s">
@@ -12203,8 +12211,8 @@
       <c r="CE74" s="67"/>
       <c r="CF74" s="67"/>
       <c r="CG74" s="67"/>
-      <c r="CH74" s="67"/>
-      <c r="CI74" s="67"/>
+      <c r="CH74" s="117"/>
+      <c r="CI74" s="117"/>
       <c r="CJ74" s="67"/>
       <c r="CK74" s="67"/>
       <c r="CL74" s="67"/>
@@ -12216,10 +12224,10 @@
       <c r="CR74" s="67"/>
     </row>
     <row r="75" spans="1:96" ht="243" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="132"/>
-      <c r="B75" s="134"/>
-      <c r="C75" s="193"/>
-      <c r="D75" s="157"/>
+      <c r="A75" s="152"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="219"/>
       <c r="E75" s="105" t="s">
         <v>127</v>
       </c>
@@ -12323,7 +12331,7 @@
       <c r="CI75" s="67"/>
       <c r="CJ75" s="67"/>
       <c r="CK75" s="67"/>
-      <c r="CL75" s="67"/>
+      <c r="CL75" s="117"/>
       <c r="CM75" s="67"/>
       <c r="CN75" s="67"/>
       <c r="CO75" s="67"/>
@@ -12332,10 +12340,10 @@
       <c r="CR75" s="67"/>
     </row>
     <row r="76" spans="1:96" ht="162" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="132"/>
-      <c r="B76" s="134"/>
-      <c r="C76" s="193"/>
-      <c r="D76" s="157"/>
+      <c r="A76" s="152"/>
+      <c r="B76" s="153"/>
+      <c r="C76" s="157"/>
+      <c r="D76" s="219"/>
       <c r="E76" s="105" t="s">
         <v>128</v>
       </c>
@@ -12435,8 +12443,8 @@
       <c r="CE76" s="67"/>
       <c r="CF76" s="67"/>
       <c r="CG76" s="67"/>
-      <c r="CH76" s="67"/>
-      <c r="CI76" s="67"/>
+      <c r="CH76" s="117"/>
+      <c r="CI76" s="117"/>
       <c r="CJ76" s="67"/>
       <c r="CK76" s="67"/>
       <c r="CL76" s="67"/>
@@ -12448,10 +12456,10 @@
       <c r="CR76" s="67"/>
     </row>
     <row r="77" spans="1:96" ht="189" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="132"/>
-      <c r="B77" s="134"/>
-      <c r="C77" s="193"/>
-      <c r="D77" s="157"/>
+      <c r="A77" s="152"/>
+      <c r="B77" s="153"/>
+      <c r="C77" s="157"/>
+      <c r="D77" s="219"/>
       <c r="E77" s="105" t="s">
         <v>129</v>
       </c>
@@ -12555,8 +12563,8 @@
       <c r="CI77" s="67"/>
       <c r="CJ77" s="67"/>
       <c r="CK77" s="67"/>
-      <c r="CL77" s="67"/>
-      <c r="CM77" s="67"/>
+      <c r="CL77" s="117"/>
+      <c r="CM77" s="117"/>
       <c r="CN77" s="67"/>
       <c r="CO77" s="67"/>
       <c r="CP77" s="67"/>
@@ -12564,10 +12572,10 @@
       <c r="CR77" s="67"/>
     </row>
     <row r="78" spans="1:96" ht="216" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="132"/>
-      <c r="B78" s="134"/>
-      <c r="C78" s="193"/>
-      <c r="D78" s="157"/>
+      <c r="A78" s="152"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="157"/>
+      <c r="D78" s="219"/>
       <c r="E78" s="105" t="s">
         <v>462</v>
       </c>
@@ -12671,7 +12679,7 @@
       <c r="CI78" s="67"/>
       <c r="CJ78" s="67"/>
       <c r="CK78" s="67"/>
-      <c r="CL78" s="67"/>
+      <c r="CL78" s="117"/>
       <c r="CM78" s="67"/>
       <c r="CN78" s="67"/>
       <c r="CO78" s="67"/>
@@ -12680,9 +12688,9 @@
       <c r="CR78" s="67"/>
     </row>
     <row r="79" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="132"/>
-      <c r="B79" s="134"/>
-      <c r="C79" s="163"/>
+      <c r="A79" s="152"/>
+      <c r="B79" s="153"/>
+      <c r="C79" s="158"/>
       <c r="D79" s="23" t="s">
         <v>102</v>
       </c>
@@ -12784,9 +12792,9 @@
       <c r="CR79" s="67"/>
     </row>
     <row r="80" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="132"/>
-      <c r="B80" s="134"/>
-      <c r="C80" s="163"/>
+      <c r="A80" s="152"/>
+      <c r="B80" s="153"/>
+      <c r="C80" s="158"/>
       <c r="D80" s="23" t="s">
         <v>93</v>
       </c>
@@ -12886,10 +12894,10 @@
       <c r="CR80" s="67"/>
     </row>
     <row r="81" spans="1:96" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="132"/>
-      <c r="B81" s="134"/>
-      <c r="C81" s="163"/>
-      <c r="D81" s="203" t="s">
+      <c r="A81" s="152"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="170" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -13004,10 +13012,10 @@
       <c r="CR81" s="67"/>
     </row>
     <row r="82" spans="1:96" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="132"/>
-      <c r="B82" s="134"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="197"/>
+      <c r="A82" s="152"/>
+      <c r="B82" s="153"/>
+      <c r="C82" s="158"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="16" t="s">
         <v>137</v>
       </c>
@@ -13122,10 +13130,10 @@
       <c r="CR82" s="67"/>
     </row>
     <row r="83" spans="1:96" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="132"/>
-      <c r="B83" s="134"/>
-      <c r="C83" s="163"/>
-      <c r="D83" s="198"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="165"/>
       <c r="E83" s="16" t="s">
         <v>126</v>
       </c>
@@ -13238,10 +13246,10 @@
       <c r="CR83" s="67"/>
     </row>
     <row r="84" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="132"/>
-      <c r="B84" s="134"/>
-      <c r="C84" s="163"/>
-      <c r="D84" s="165"/>
+      <c r="A84" s="152"/>
+      <c r="B84" s="153"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="159"/>
       <c r="E84" s="16" t="s">
         <v>130</v>
       </c>
@@ -13356,10 +13364,10 @@
       <c r="CR84" s="67"/>
     </row>
     <row r="85" spans="1:96" ht="67.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="132"/>
-      <c r="B85" s="134"/>
-      <c r="C85" s="163"/>
-      <c r="D85" s="162" t="s">
+      <c r="A85" s="152"/>
+      <c r="B85" s="153"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="156" t="s">
         <v>60</v>
       </c>
       <c r="E85" s="16" t="s">
@@ -13372,22 +13380,22 @@
         <v>140</v>
       </c>
       <c r="H85" s="16"/>
-      <c r="I85" s="187" t="s">
+      <c r="I85" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="J85" s="187" t="s">
+      <c r="J85" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="K85" s="187" t="s">
+      <c r="K85" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="L85" s="190" t="s">
+      <c r="L85" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="M85" s="184" t="s">
+      <c r="M85" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="N85" s="184" t="s">
+      <c r="N85" s="172" t="s">
         <v>146</v>
       </c>
       <c r="O85" s="74"/>
@@ -13474,10 +13482,10 @@
       <c r="CR85" s="67"/>
     </row>
     <row r="86" spans="1:96" ht="67.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="132"/>
-      <c r="B86" s="134"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
+      <c r="A86" s="152"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
       <c r="E86" s="16" t="s">
         <v>147</v>
       </c>
@@ -13488,12 +13496,12 @@
         <v>149</v>
       </c>
       <c r="H86" s="16"/>
-      <c r="I86" s="188"/>
-      <c r="J86" s="188"/>
-      <c r="K86" s="188"/>
-      <c r="L86" s="191"/>
-      <c r="M86" s="185"/>
-      <c r="N86" s="185"/>
+      <c r="I86" s="176"/>
+      <c r="J86" s="176"/>
+      <c r="K86" s="176"/>
+      <c r="L86" s="179"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="173"/>
       <c r="O86" s="74"/>
       <c r="P86" s="63"/>
       <c r="Q86" s="64"/>
@@ -13578,10 +13586,10 @@
       <c r="CR86" s="67"/>
     </row>
     <row r="87" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="132"/>
-      <c r="B87" s="134"/>
-      <c r="C87" s="163"/>
-      <c r="D87" s="163"/>
+      <c r="A87" s="152"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="158"/>
       <c r="E87" s="16" t="s">
         <v>150</v>
       </c>
@@ -13592,12 +13600,12 @@
         <v>152</v>
       </c>
       <c r="H87" s="16"/>
-      <c r="I87" s="188"/>
-      <c r="J87" s="188"/>
-      <c r="K87" s="188"/>
-      <c r="L87" s="191"/>
-      <c r="M87" s="185"/>
-      <c r="N87" s="185"/>
+      <c r="I87" s="176"/>
+      <c r="J87" s="176"/>
+      <c r="K87" s="176"/>
+      <c r="L87" s="179"/>
+      <c r="M87" s="173"/>
+      <c r="N87" s="173"/>
       <c r="O87" s="74"/>
       <c r="P87" s="63"/>
       <c r="Q87" s="64"/>
@@ -13682,10 +13690,10 @@
       <c r="CR87" s="67"/>
     </row>
     <row r="88" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="132"/>
-      <c r="B88" s="134"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="165"/>
+      <c r="A88" s="152"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="158"/>
+      <c r="D88" s="159"/>
       <c r="E88" s="16" t="s">
         <v>153</v>
       </c>
@@ -13696,12 +13704,12 @@
         <v>155</v>
       </c>
       <c r="H88" s="16"/>
-      <c r="I88" s="189"/>
-      <c r="J88" s="189"/>
-      <c r="K88" s="189"/>
-      <c r="L88" s="192"/>
-      <c r="M88" s="186"/>
-      <c r="N88" s="186"/>
+      <c r="I88" s="177"/>
+      <c r="J88" s="177"/>
+      <c r="K88" s="177"/>
+      <c r="L88" s="180"/>
+      <c r="M88" s="174"/>
+      <c r="N88" s="174"/>
       <c r="O88" s="74"/>
       <c r="P88" s="63"/>
       <c r="Q88" s="64"/>
@@ -13786,16 +13794,16 @@
       <c r="CR88" s="67"/>
     </row>
     <row r="89" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="132"/>
-      <c r="B89" s="134"/>
-      <c r="C89" s="163"/>
-      <c r="D89" s="162" t="s">
+      <c r="A89" s="152"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="156" t="s">
         <v>60</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F89" s="187" t="s">
+      <c r="F89" s="175" t="s">
         <v>157</v>
       </c>
       <c r="G89" s="25" t="s">
@@ -13892,14 +13900,14 @@
       <c r="CR89" s="67"/>
     </row>
     <row r="90" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="132"/>
-      <c r="B90" s="134"/>
-      <c r="C90" s="163"/>
-      <c r="D90" s="163"/>
+      <c r="A90" s="152"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
       <c r="E90" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F90" s="188"/>
+      <c r="F90" s="176"/>
       <c r="G90" s="48" t="s">
         <v>160</v>
       </c>
@@ -13994,14 +14002,14 @@
       <c r="CR90" s="67"/>
     </row>
     <row r="91" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="132"/>
-      <c r="B91" s="134"/>
-      <c r="C91" s="163"/>
-      <c r="D91" s="163"/>
+      <c r="A91" s="152"/>
+      <c r="B91" s="153"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
       <c r="E91" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="188"/>
+      <c r="F91" s="176"/>
       <c r="G91" s="48" t="s">
         <v>162</v>
       </c>
@@ -14096,14 +14104,14 @@
       <c r="CR91" s="67"/>
     </row>
     <row r="92" spans="1:96" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="132"/>
-      <c r="B92" s="134"/>
-      <c r="C92" s="163"/>
-      <c r="D92" s="163"/>
+      <c r="A92" s="152"/>
+      <c r="B92" s="153"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="158"/>
       <c r="E92" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="188"/>
+      <c r="F92" s="176"/>
       <c r="G92" s="48" t="s">
         <v>164</v>
       </c>
@@ -14198,14 +14206,14 @@
       <c r="CR92" s="67"/>
     </row>
     <row r="93" spans="1:96" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="132"/>
-      <c r="B93" s="134"/>
-      <c r="C93" s="163"/>
-      <c r="D93" s="163"/>
+      <c r="A93" s="152"/>
+      <c r="B93" s="153"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
       <c r="E93" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F93" s="188"/>
+      <c r="F93" s="176"/>
       <c r="G93" s="48" t="s">
         <v>166</v>
       </c>
@@ -14310,14 +14318,14 @@
       <c r="CR93" s="67"/>
     </row>
     <row r="94" spans="1:96" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="132"/>
-      <c r="B94" s="134"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
+      <c r="A94" s="152"/>
+      <c r="B94" s="153"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="159"/>
       <c r="E94" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F94" s="189"/>
+      <c r="F94" s="177"/>
       <c r="G94" s="48" t="s">
         <v>173</v>
       </c>
@@ -14412,18 +14420,18 @@
       <c r="CR94" s="67"/>
     </row>
     <row r="95" spans="1:96" ht="81" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="132"/>
-      <c r="B95" s="134"/>
-      <c r="C95" s="162" t="s">
+      <c r="A95" s="152"/>
+      <c r="B95" s="153"/>
+      <c r="C95" s="156" t="s">
         <v>174</v>
       </c>
-      <c r="D95" s="162" t="s">
+      <c r="D95" s="156" t="s">
         <v>60</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F95" s="187" t="s">
+      <c r="F95" s="175" t="s">
         <v>75</v>
       </c>
       <c r="G95" s="48" t="s">
@@ -14522,14 +14530,14 @@
       <c r="CR95" s="67"/>
     </row>
     <row r="96" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="132"/>
-      <c r="B96" s="134"/>
-      <c r="C96" s="163"/>
-      <c r="D96" s="163"/>
+      <c r="A96" s="152"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="158"/>
       <c r="E96" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F96" s="188"/>
+      <c r="F96" s="176"/>
       <c r="G96" s="48" t="s">
         <v>179</v>
       </c>
@@ -14626,14 +14634,14 @@
       <c r="CR96" s="67"/>
     </row>
     <row r="97" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="132"/>
-      <c r="B97" s="134"/>
-      <c r="C97" s="163"/>
-      <c r="D97" s="163"/>
+      <c r="A97" s="152"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="158"/>
+      <c r="D97" s="158"/>
       <c r="E97" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F97" s="188"/>
+      <c r="F97" s="176"/>
       <c r="G97" s="48" t="s">
         <v>182</v>
       </c>
@@ -14730,14 +14738,14 @@
       <c r="CR97" s="67"/>
     </row>
     <row r="98" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="132"/>
-      <c r="B98" s="134"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
+      <c r="A98" s="152"/>
+      <c r="B98" s="153"/>
+      <c r="C98" s="159"/>
+      <c r="D98" s="159"/>
       <c r="E98" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F98" s="189"/>
+      <c r="F98" s="177"/>
       <c r="G98" s="48" t="s">
         <v>185</v>
       </c>
@@ -14834,8 +14842,8 @@
       <c r="CR98" s="67"/>
     </row>
     <row r="99" spans="1:96" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="135"/>
-      <c r="B99" s="137"/>
+      <c r="A99" s="154"/>
+      <c r="B99" s="155"/>
       <c r="C99" s="18" t="s">
         <v>187</v>
       </c>
@@ -14941,16 +14949,16 @@
       <c r="CQ99" s="67"/>
       <c r="CR99" s="67"/>
     </row>
-    <row r="100" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="141" t="s">
+    <row r="100" spans="1:96" s="144" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="144" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:96" ht="270" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="132"/>
-      <c r="B101" s="133"/>
-      <c r="C101" s="134"/>
-      <c r="D101" s="158" t="s">
+      <c r="A101" s="152"/>
+      <c r="B101" s="183"/>
+      <c r="C101" s="153"/>
+      <c r="D101" s="220" t="s">
         <v>88</v>
       </c>
       <c r="E101" s="105" t="s">
@@ -15067,10 +15075,10 @@
       <c r="CR101" s="70"/>
     </row>
     <row r="102" spans="1:96" ht="54" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="132"/>
-      <c r="B102" s="133"/>
-      <c r="C102" s="134"/>
-      <c r="D102" s="159"/>
+      <c r="A102" s="152"/>
+      <c r="B102" s="183"/>
+      <c r="C102" s="153"/>
+      <c r="D102" s="221"/>
       <c r="E102" s="105" t="s">
         <v>472</v>
       </c>
@@ -15185,10 +15193,10 @@
       <c r="CR102" s="70"/>
     </row>
     <row r="103" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="132"/>
-      <c r="B103" s="133"/>
-      <c r="C103" s="134"/>
-      <c r="D103" s="159"/>
+      <c r="A103" s="152"/>
+      <c r="B103" s="183"/>
+      <c r="C103" s="153"/>
+      <c r="D103" s="221"/>
       <c r="E103" s="105" t="s">
         <v>475</v>
       </c>
@@ -15303,10 +15311,10 @@
       <c r="CR103" s="70"/>
     </row>
     <row r="104" spans="1:96" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="132"/>
-      <c r="B104" s="133"/>
-      <c r="C104" s="134"/>
-      <c r="D104" s="138" t="s">
+      <c r="A104" s="152"/>
+      <c r="B104" s="183"/>
+      <c r="C104" s="153"/>
+      <c r="D104" s="181" t="s">
         <v>60</v>
       </c>
       <c r="E104" s="16" t="s">
@@ -15407,10 +15415,10 @@
       <c r="CR104" s="70"/>
     </row>
     <row r="105" spans="1:96" ht="81" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="132"/>
-      <c r="B105" s="133"/>
-      <c r="C105" s="134"/>
-      <c r="D105" s="140"/>
+      <c r="A105" s="152"/>
+      <c r="B105" s="183"/>
+      <c r="C105" s="153"/>
+      <c r="D105" s="182"/>
       <c r="E105" s="16" t="s">
         <v>192</v>
       </c>
@@ -15509,9 +15517,9 @@
       <c r="CR105" s="70"/>
     </row>
     <row r="106" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="132"/>
-      <c r="B106" s="133"/>
-      <c r="C106" s="134"/>
+      <c r="A106" s="152"/>
+      <c r="B106" s="183"/>
+      <c r="C106" s="153"/>
       <c r="D106" s="82" t="s">
         <v>89</v>
       </c>
@@ -15611,10 +15619,10 @@
       <c r="CR106" s="70"/>
     </row>
     <row r="107" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="132"/>
-      <c r="B107" s="133"/>
-      <c r="C107" s="134"/>
-      <c r="D107" s="181" t="s">
+      <c r="A107" s="152"/>
+      <c r="B107" s="183"/>
+      <c r="C107" s="153"/>
+      <c r="D107" s="185" t="s">
         <v>439</v>
       </c>
       <c r="E107" s="105" t="s">
@@ -15629,7 +15637,7 @@
       <c r="H107" s="125" t="s">
         <v>478</v>
       </c>
-      <c r="I107" s="160" t="s">
+      <c r="I107" s="222" t="s">
         <v>470</v>
       </c>
       <c r="J107" s="126" t="s">
@@ -15731,10 +15739,10 @@
       <c r="CR107" s="70"/>
     </row>
     <row r="108" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="132"/>
-      <c r="B108" s="133"/>
-      <c r="C108" s="134"/>
-      <c r="D108" s="182"/>
+      <c r="A108" s="152"/>
+      <c r="B108" s="183"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="186"/>
       <c r="E108" s="105" t="s">
         <v>479</v>
       </c>
@@ -15747,7 +15755,7 @@
       <c r="H108" s="125" t="s">
         <v>481</v>
       </c>
-      <c r="I108" s="161"/>
+      <c r="I108" s="223"/>
       <c r="J108" s="125" t="s">
         <v>482</v>
       </c>
@@ -15847,10 +15855,10 @@
       <c r="CR108" s="70"/>
     </row>
     <row r="109" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="132"/>
-      <c r="B109" s="133"/>
-      <c r="C109" s="134"/>
-      <c r="D109" s="138" t="s">
+      <c r="A109" s="152"/>
+      <c r="B109" s="183"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="181" t="s">
         <v>121</v>
       </c>
       <c r="E109" s="16" t="s">
@@ -15949,10 +15957,10 @@
       <c r="CR109" s="70"/>
     </row>
     <row r="110" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="132"/>
-      <c r="B110" s="133"/>
-      <c r="C110" s="134"/>
-      <c r="D110" s="140"/>
+      <c r="A110" s="152"/>
+      <c r="B110" s="183"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="182"/>
       <c r="E110" s="16" t="s">
         <v>197</v>
       </c>
@@ -16049,10 +16057,10 @@
       <c r="CR110" s="70"/>
     </row>
     <row r="111" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="132"/>
-      <c r="B111" s="133"/>
-      <c r="C111" s="134"/>
-      <c r="D111" s="138" t="s">
+      <c r="A111" s="152"/>
+      <c r="B111" s="183"/>
+      <c r="C111" s="153"/>
+      <c r="D111" s="181" t="s">
         <v>89</v>
       </c>
       <c r="E111" s="16" t="s">
@@ -16153,10 +16161,10 @@
       <c r="CR111" s="70"/>
     </row>
     <row r="112" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="132"/>
-      <c r="B112" s="133"/>
-      <c r="C112" s="134"/>
-      <c r="D112" s="183"/>
+      <c r="A112" s="152"/>
+      <c r="B112" s="183"/>
+      <c r="C112" s="153"/>
+      <c r="D112" s="187"/>
       <c r="E112" s="16" t="s">
         <v>200</v>
       </c>
@@ -16255,10 +16263,10 @@
       <c r="CR112" s="70"/>
     </row>
     <row r="113" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="132"/>
-      <c r="B113" s="133"/>
-      <c r="C113" s="134"/>
-      <c r="D113" s="183"/>
+      <c r="A113" s="152"/>
+      <c r="B113" s="183"/>
+      <c r="C113" s="153"/>
+      <c r="D113" s="187"/>
       <c r="E113" s="16" t="s">
         <v>393</v>
       </c>
@@ -16357,10 +16365,10 @@
       <c r="CR113" s="70"/>
     </row>
     <row r="114" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="132"/>
-      <c r="B114" s="133"/>
-      <c r="C114" s="134"/>
-      <c r="D114" s="139"/>
+      <c r="A114" s="152"/>
+      <c r="B114" s="183"/>
+      <c r="C114" s="153"/>
+      <c r="D114" s="188"/>
       <c r="E114" s="16" t="s">
         <v>394</v>
       </c>
@@ -16459,10 +16467,10 @@
       <c r="CR114" s="70"/>
     </row>
     <row r="115" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="132"/>
-      <c r="B115" s="133"/>
-      <c r="C115" s="134"/>
-      <c r="D115" s="139"/>
+      <c r="A115" s="152"/>
+      <c r="B115" s="183"/>
+      <c r="C115" s="153"/>
+      <c r="D115" s="188"/>
       <c r="E115" s="16" t="s">
         <v>199</v>
       </c>
@@ -16561,10 +16569,10 @@
       <c r="CR115" s="70"/>
     </row>
     <row r="116" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="132"/>
-      <c r="B116" s="133"/>
-      <c r="C116" s="134"/>
-      <c r="D116" s="139"/>
+      <c r="A116" s="152"/>
+      <c r="B116" s="183"/>
+      <c r="C116" s="153"/>
+      <c r="D116" s="188"/>
       <c r="E116" s="16" t="s">
         <v>198</v>
       </c>
@@ -16663,10 +16671,10 @@
       <c r="CR116" s="70"/>
     </row>
     <row r="117" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="132"/>
-      <c r="B117" s="133"/>
-      <c r="C117" s="134"/>
-      <c r="D117" s="139"/>
+      <c r="A117" s="152"/>
+      <c r="B117" s="183"/>
+      <c r="C117" s="153"/>
+      <c r="D117" s="188"/>
       <c r="E117" s="16" t="s">
         <v>194</v>
       </c>
@@ -16765,10 +16773,10 @@
       <c r="CR117" s="70"/>
     </row>
     <row r="118" spans="1:96" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="132"/>
-      <c r="B118" s="133"/>
-      <c r="C118" s="134"/>
-      <c r="D118" s="140"/>
+      <c r="A118" s="152"/>
+      <c r="B118" s="183"/>
+      <c r="C118" s="153"/>
+      <c r="D118" s="182"/>
       <c r="E118" s="16" t="s">
         <v>395</v>
       </c>
@@ -16867,10 +16875,10 @@
       <c r="CR118" s="70"/>
     </row>
     <row r="119" spans="1:96" ht="100.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="132"/>
-      <c r="B119" s="133"/>
-      <c r="C119" s="134"/>
-      <c r="D119" s="138" t="s">
+      <c r="A119" s="152"/>
+      <c r="B119" s="183"/>
+      <c r="C119" s="153"/>
+      <c r="D119" s="181" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="16" t="s">
@@ -16981,10 +16989,10 @@
       <c r="CR119" s="70"/>
     </row>
     <row r="120" spans="1:96" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="132"/>
-      <c r="B120" s="133"/>
-      <c r="C120" s="134"/>
-      <c r="D120" s="140"/>
+      <c r="A120" s="152"/>
+      <c r="B120" s="183"/>
+      <c r="C120" s="153"/>
+      <c r="D120" s="182"/>
       <c r="E120" s="16" t="s">
         <v>208</v>
       </c>
@@ -17083,10 +17091,10 @@
       <c r="CR120" s="70"/>
     </row>
     <row r="121" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="132"/>
-      <c r="B121" s="133"/>
-      <c r="C121" s="134"/>
-      <c r="D121" s="138" t="s">
+      <c r="A121" s="152"/>
+      <c r="B121" s="183"/>
+      <c r="C121" s="153"/>
+      <c r="D121" s="181" t="s">
         <v>121</v>
       </c>
       <c r="E121" s="16" t="s">
@@ -17187,10 +17195,10 @@
       <c r="CR121" s="70"/>
     </row>
     <row r="122" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="132"/>
-      <c r="B122" s="133"/>
-      <c r="C122" s="134"/>
-      <c r="D122" s="139"/>
+      <c r="A122" s="152"/>
+      <c r="B122" s="183"/>
+      <c r="C122" s="153"/>
+      <c r="D122" s="188"/>
       <c r="E122" s="16" t="s">
         <v>211</v>
       </c>
@@ -17289,10 +17297,10 @@
       <c r="CR122" s="70"/>
     </row>
     <row r="123" spans="1:96" ht="162" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="132"/>
-      <c r="B123" s="133"/>
-      <c r="C123" s="134"/>
-      <c r="D123" s="139"/>
+      <c r="A123" s="152"/>
+      <c r="B123" s="183"/>
+      <c r="C123" s="153"/>
+      <c r="D123" s="188"/>
       <c r="E123" s="16" t="s">
         <v>212</v>
       </c>
@@ -17391,10 +17399,10 @@
       <c r="CR123" s="70"/>
     </row>
     <row r="124" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="132"/>
-      <c r="B124" s="133"/>
-      <c r="C124" s="134"/>
-      <c r="D124" s="139"/>
+      <c r="A124" s="152"/>
+      <c r="B124" s="183"/>
+      <c r="C124" s="153"/>
+      <c r="D124" s="188"/>
       <c r="E124" s="16" t="s">
         <v>213</v>
       </c>
@@ -17493,10 +17501,10 @@
       <c r="CR124" s="70"/>
     </row>
     <row r="125" spans="1:96" ht="162" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="132"/>
-      <c r="B125" s="133"/>
-      <c r="C125" s="134"/>
-      <c r="D125" s="139"/>
+      <c r="A125" s="152"/>
+      <c r="B125" s="183"/>
+      <c r="C125" s="153"/>
+      <c r="D125" s="188"/>
       <c r="E125" s="16" t="s">
         <v>214</v>
       </c>
@@ -17595,10 +17603,10 @@
       <c r="CR125" s="70"/>
     </row>
     <row r="126" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="132"/>
-      <c r="B126" s="133"/>
-      <c r="C126" s="134"/>
-      <c r="D126" s="139"/>
+      <c r="A126" s="152"/>
+      <c r="B126" s="183"/>
+      <c r="C126" s="153"/>
+      <c r="D126" s="188"/>
       <c r="E126" s="16" t="s">
         <v>215</v>
       </c>
@@ -17697,10 +17705,10 @@
       <c r="CR126" s="70"/>
     </row>
     <row r="127" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="132"/>
-      <c r="B127" s="133"/>
-      <c r="C127" s="134"/>
-      <c r="D127" s="139"/>
+      <c r="A127" s="152"/>
+      <c r="B127" s="183"/>
+      <c r="C127" s="153"/>
+      <c r="D127" s="188"/>
       <c r="E127" s="16" t="s">
         <v>216</v>
       </c>
@@ -17799,10 +17807,10 @@
       <c r="CR127" s="70"/>
     </row>
     <row r="128" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="132"/>
-      <c r="B128" s="133"/>
-      <c r="C128" s="134"/>
-      <c r="D128" s="139"/>
+      <c r="A128" s="152"/>
+      <c r="B128" s="183"/>
+      <c r="C128" s="153"/>
+      <c r="D128" s="188"/>
       <c r="E128" s="16" t="s">
         <v>217</v>
       </c>
@@ -17901,10 +17909,10 @@
       <c r="CR128" s="70"/>
     </row>
     <row r="129" spans="1:96" ht="175.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="132"/>
-      <c r="B129" s="133"/>
-      <c r="C129" s="134"/>
-      <c r="D129" s="139"/>
+      <c r="A129" s="152"/>
+      <c r="B129" s="183"/>
+      <c r="C129" s="153"/>
+      <c r="D129" s="188"/>
       <c r="E129" s="16" t="s">
         <v>218</v>
       </c>
@@ -18003,10 +18011,10 @@
       <c r="CR129" s="70"/>
     </row>
     <row r="130" spans="1:96" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="132"/>
-      <c r="B130" s="133"/>
-      <c r="C130" s="134"/>
-      <c r="D130" s="139"/>
+      <c r="A130" s="152"/>
+      <c r="B130" s="183"/>
+      <c r="C130" s="153"/>
+      <c r="D130" s="188"/>
       <c r="E130" s="16" t="s">
         <v>219</v>
       </c>
@@ -18105,10 +18113,10 @@
       <c r="CR130" s="70"/>
     </row>
     <row r="131" spans="1:96" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="132"/>
-      <c r="B131" s="133"/>
-      <c r="C131" s="134"/>
-      <c r="D131" s="139"/>
+      <c r="A131" s="152"/>
+      <c r="B131" s="183"/>
+      <c r="C131" s="153"/>
+      <c r="D131" s="188"/>
       <c r="E131" s="16" t="s">
         <v>220</v>
       </c>
@@ -18207,10 +18215,10 @@
       <c r="CR131" s="70"/>
     </row>
     <row r="132" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="132"/>
-      <c r="B132" s="133"/>
-      <c r="C132" s="134"/>
-      <c r="D132" s="140"/>
+      <c r="A132" s="152"/>
+      <c r="B132" s="183"/>
+      <c r="C132" s="153"/>
+      <c r="D132" s="182"/>
       <c r="E132" s="16" t="s">
         <v>221</v>
       </c>
@@ -18309,9 +18317,9 @@
       <c r="CR132" s="70"/>
     </row>
     <row r="133" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="135"/>
-      <c r="B133" s="136"/>
-      <c r="C133" s="137"/>
+      <c r="A133" s="154"/>
+      <c r="B133" s="184"/>
+      <c r="C133" s="155"/>
       <c r="D133" s="23" t="s">
         <v>60</v>
       </c>
@@ -18413,11 +18421,11 @@
       <c r="CR133" s="70"/>
     </row>
     <row r="134" spans="1:96" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="129" t="s">
+      <c r="A134" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="B134" s="130"/>
-      <c r="C134" s="131"/>
+      <c r="B134" s="203"/>
+      <c r="C134" s="151"/>
       <c r="D134" s="52" t="s">
         <v>225</v>
       </c>
@@ -18519,9 +18527,9 @@
       <c r="CR134" s="70"/>
     </row>
     <row r="135" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="132"/>
-      <c r="B135" s="133"/>
-      <c r="C135" s="134"/>
+      <c r="A135" s="152"/>
+      <c r="B135" s="183"/>
+      <c r="C135" s="153"/>
       <c r="D135" s="23" t="s">
         <v>93</v>
       </c>
@@ -18621,9 +18629,9 @@
       <c r="CR135" s="70"/>
     </row>
     <row r="136" spans="1:96" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="135"/>
-      <c r="B136" s="136"/>
-      <c r="C136" s="137"/>
+      <c r="A136" s="154"/>
+      <c r="B136" s="184"/>
+      <c r="C136" s="155"/>
       <c r="D136" s="23" t="s">
         <v>228</v>
       </c>
@@ -18724,34 +18732,34 @@
       <c r="CQ136" s="70"/>
       <c r="CR136" s="70"/>
     </row>
-    <row r="137" spans="1:96" s="141" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="141" t="s">
+    <row r="137" spans="1:96" s="144" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="144" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="129" t="s">
+      <c r="A138" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="130"/>
-      <c r="C138" s="131"/>
-      <c r="D138" s="162" t="s">
+      <c r="B138" s="203"/>
+      <c r="C138" s="151"/>
+      <c r="D138" s="156" t="s">
         <v>89</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F138" s="166"/>
-      <c r="G138" s="169" t="s">
+      <c r="F138" s="199"/>
+      <c r="G138" s="202" t="s">
         <v>404</v>
       </c>
-      <c r="H138" s="172"/>
-      <c r="I138" s="172"/>
-      <c r="J138" s="172"/>
-      <c r="K138" s="172"/>
-      <c r="L138" s="172"/>
-      <c r="M138" s="175"/>
-      <c r="N138" s="178"/>
+      <c r="H138" s="189"/>
+      <c r="I138" s="189"/>
+      <c r="J138" s="189"/>
+      <c r="K138" s="189"/>
+      <c r="L138" s="189"/>
+      <c r="M138" s="192"/>
+      <c r="N138" s="195"/>
       <c r="O138" s="76"/>
       <c r="P138" s="71"/>
       <c r="Q138" s="71"/>
@@ -18836,22 +18844,22 @@
       <c r="CR138" s="70"/>
     </row>
     <row r="139" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="132"/>
-      <c r="B139" s="133"/>
-      <c r="C139" s="134"/>
-      <c r="D139" s="163"/>
+      <c r="A139" s="152"/>
+      <c r="B139" s="183"/>
+      <c r="C139" s="153"/>
+      <c r="D139" s="158"/>
       <c r="E139" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F139" s="167"/>
-      <c r="G139" s="170"/>
-      <c r="H139" s="173"/>
-      <c r="I139" s="173"/>
-      <c r="J139" s="173"/>
-      <c r="K139" s="173"/>
-      <c r="L139" s="173"/>
-      <c r="M139" s="176"/>
-      <c r="N139" s="179"/>
+      <c r="F139" s="200"/>
+      <c r="G139" s="161"/>
+      <c r="H139" s="190"/>
+      <c r="I139" s="190"/>
+      <c r="J139" s="190"/>
+      <c r="K139" s="190"/>
+      <c r="L139" s="190"/>
+      <c r="M139" s="193"/>
+      <c r="N139" s="196"/>
       <c r="O139" s="76"/>
       <c r="P139" s="71"/>
       <c r="Q139" s="71"/>
@@ -18936,22 +18944,22 @@
       <c r="CR139" s="70"/>
     </row>
     <row r="140" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="132"/>
-      <c r="B140" s="133"/>
-      <c r="C140" s="134"/>
-      <c r="D140" s="163"/>
+      <c r="A140" s="152"/>
+      <c r="B140" s="183"/>
+      <c r="C140" s="153"/>
+      <c r="D140" s="158"/>
       <c r="E140" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F140" s="167"/>
-      <c r="G140" s="170"/>
-      <c r="H140" s="173"/>
-      <c r="I140" s="173"/>
-      <c r="J140" s="173"/>
-      <c r="K140" s="173"/>
-      <c r="L140" s="173"/>
-      <c r="M140" s="176"/>
-      <c r="N140" s="179"/>
+      <c r="F140" s="200"/>
+      <c r="G140" s="161"/>
+      <c r="H140" s="190"/>
+      <c r="I140" s="190"/>
+      <c r="J140" s="190"/>
+      <c r="K140" s="190"/>
+      <c r="L140" s="190"/>
+      <c r="M140" s="193"/>
+      <c r="N140" s="196"/>
       <c r="O140" s="76"/>
       <c r="P140" s="71"/>
       <c r="Q140" s="71"/>
@@ -19036,22 +19044,22 @@
       <c r="CR140" s="70"/>
     </row>
     <row r="141" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="132"/>
-      <c r="B141" s="133"/>
-      <c r="C141" s="134"/>
-      <c r="D141" s="163"/>
+      <c r="A141" s="152"/>
+      <c r="B141" s="183"/>
+      <c r="C141" s="153"/>
+      <c r="D141" s="158"/>
       <c r="E141" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F141" s="167"/>
-      <c r="G141" s="170"/>
-      <c r="H141" s="173"/>
-      <c r="I141" s="173"/>
-      <c r="J141" s="173"/>
-      <c r="K141" s="173"/>
-      <c r="L141" s="173"/>
-      <c r="M141" s="176"/>
-      <c r="N141" s="179"/>
+      <c r="F141" s="200"/>
+      <c r="G141" s="161"/>
+      <c r="H141" s="190"/>
+      <c r="I141" s="190"/>
+      <c r="J141" s="190"/>
+      <c r="K141" s="190"/>
+      <c r="L141" s="190"/>
+      <c r="M141" s="193"/>
+      <c r="N141" s="196"/>
       <c r="O141" s="76"/>
       <c r="P141" s="71"/>
       <c r="Q141" s="71"/>
@@ -19136,22 +19144,22 @@
       <c r="CR141" s="70"/>
     </row>
     <row r="142" spans="1:96" ht="173.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="132"/>
-      <c r="B142" s="133"/>
-      <c r="C142" s="134"/>
-      <c r="D142" s="164"/>
+      <c r="A142" s="152"/>
+      <c r="B142" s="183"/>
+      <c r="C142" s="153"/>
+      <c r="D142" s="198"/>
       <c r="E142" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F142" s="168"/>
-      <c r="G142" s="171"/>
-      <c r="H142" s="174"/>
-      <c r="I142" s="174"/>
-      <c r="J142" s="174"/>
-      <c r="K142" s="174"/>
-      <c r="L142" s="174"/>
-      <c r="M142" s="177"/>
-      <c r="N142" s="180"/>
+      <c r="F142" s="201"/>
+      <c r="G142" s="162"/>
+      <c r="H142" s="191"/>
+      <c r="I142" s="191"/>
+      <c r="J142" s="191"/>
+      <c r="K142" s="191"/>
+      <c r="L142" s="191"/>
+      <c r="M142" s="194"/>
+      <c r="N142" s="197"/>
       <c r="O142" s="76"/>
       <c r="P142" s="71"/>
       <c r="Q142" s="71"/>
@@ -19236,10 +19244,10 @@
       <c r="CR142" s="70"/>
     </row>
     <row r="143" spans="1:96" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="132"/>
-      <c r="B143" s="133"/>
-      <c r="C143" s="134"/>
-      <c r="D143" s="165"/>
+      <c r="A143" s="152"/>
+      <c r="B143" s="183"/>
+      <c r="C143" s="153"/>
+      <c r="D143" s="159"/>
       <c r="E143" s="16" t="s">
         <v>246</v>
       </c>
@@ -19338,10 +19346,10 @@
       <c r="CR143" s="70"/>
     </row>
     <row r="144" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="132"/>
-      <c r="B144" s="133"/>
-      <c r="C144" s="134"/>
-      <c r="D144" s="162" t="s">
+      <c r="A144" s="152"/>
+      <c r="B144" s="183"/>
+      <c r="C144" s="153"/>
+      <c r="D144" s="156" t="s">
         <v>121</v>
       </c>
       <c r="E144" s="16" t="s">
@@ -19442,10 +19450,10 @@
       <c r="CR144" s="70"/>
     </row>
     <row r="145" spans="1:96" ht="270" x14ac:dyDescent="0.25">
-      <c r="A145" s="132"/>
-      <c r="B145" s="133"/>
-      <c r="C145" s="134"/>
-      <c r="D145" s="163"/>
+      <c r="A145" s="152"/>
+      <c r="B145" s="183"/>
+      <c r="C145" s="153"/>
+      <c r="D145" s="158"/>
       <c r="E145" s="16" t="s">
         <v>237</v>
       </c>
@@ -19544,10 +19552,10 @@
       <c r="CR145" s="70"/>
     </row>
     <row r="146" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="132"/>
-      <c r="B146" s="133"/>
-      <c r="C146" s="134"/>
-      <c r="D146" s="163"/>
+      <c r="A146" s="152"/>
+      <c r="B146" s="183"/>
+      <c r="C146" s="153"/>
+      <c r="D146" s="158"/>
       <c r="E146" s="16" t="s">
         <v>238</v>
       </c>
@@ -19646,10 +19654,10 @@
       <c r="CR146" s="70"/>
     </row>
     <row r="147" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="132"/>
-      <c r="B147" s="133"/>
-      <c r="C147" s="134"/>
-      <c r="D147" s="163"/>
+      <c r="A147" s="152"/>
+      <c r="B147" s="183"/>
+      <c r="C147" s="153"/>
+      <c r="D147" s="158"/>
       <c r="E147" s="16" t="s">
         <v>239</v>
       </c>
@@ -19748,10 +19756,10 @@
       <c r="CR147" s="70"/>
     </row>
     <row r="148" spans="1:96" ht="311.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="132"/>
-      <c r="B148" s="133"/>
-      <c r="C148" s="134"/>
-      <c r="D148" s="163"/>
+      <c r="A148" s="152"/>
+      <c r="B148" s="183"/>
+      <c r="C148" s="153"/>
+      <c r="D148" s="158"/>
       <c r="E148" s="16" t="s">
         <v>240</v>
       </c>
@@ -19850,10 +19858,10 @@
       <c r="CR148" s="70"/>
     </row>
     <row r="149" spans="1:96" ht="364.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="132"/>
-      <c r="B149" s="133"/>
-      <c r="C149" s="134"/>
-      <c r="D149" s="163"/>
+      <c r="A149" s="152"/>
+      <c r="B149" s="183"/>
+      <c r="C149" s="153"/>
+      <c r="D149" s="158"/>
       <c r="E149" s="16" t="s">
         <v>241</v>
       </c>
@@ -19952,10 +19960,10 @@
       <c r="CR149" s="70"/>
     </row>
     <row r="150" spans="1:96" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="132"/>
-      <c r="B150" s="133"/>
-      <c r="C150" s="134"/>
-      <c r="D150" s="163"/>
+      <c r="A150" s="152"/>
+      <c r="B150" s="183"/>
+      <c r="C150" s="153"/>
+      <c r="D150" s="158"/>
       <c r="E150" s="16" t="s">
         <v>242</v>
       </c>
@@ -20054,10 +20062,10 @@
       <c r="CR150" s="70"/>
     </row>
     <row r="151" spans="1:96" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="132"/>
-      <c r="B151" s="133"/>
-      <c r="C151" s="134"/>
-      <c r="D151" s="163"/>
+      <c r="A151" s="152"/>
+      <c r="B151" s="183"/>
+      <c r="C151" s="153"/>
+      <c r="D151" s="158"/>
       <c r="E151" s="16" t="s">
         <v>243</v>
       </c>
@@ -20156,10 +20164,10 @@
       <c r="CR151" s="70"/>
     </row>
     <row r="152" spans="1:96" ht="310.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="132"/>
-      <c r="B152" s="133"/>
-      <c r="C152" s="134"/>
-      <c r="D152" s="163"/>
+      <c r="A152" s="152"/>
+      <c r="B152" s="183"/>
+      <c r="C152" s="153"/>
+      <c r="D152" s="158"/>
       <c r="E152" s="16" t="s">
         <v>244</v>
       </c>
@@ -20258,10 +20266,10 @@
       <c r="CR152" s="70"/>
     </row>
     <row r="153" spans="1:96" ht="351" x14ac:dyDescent="0.25">
-      <c r="A153" s="132"/>
-      <c r="B153" s="133"/>
-      <c r="C153" s="134"/>
-      <c r="D153" s="165"/>
+      <c r="A153" s="152"/>
+      <c r="B153" s="183"/>
+      <c r="C153" s="153"/>
+      <c r="D153" s="159"/>
       <c r="E153" s="16" t="s">
         <v>245</v>
       </c>
@@ -20360,9 +20368,9 @@
       <c r="CR153" s="70"/>
     </row>
     <row r="154" spans="1:96" ht="81" x14ac:dyDescent="0.25">
-      <c r="A154" s="132"/>
-      <c r="B154" s="133"/>
-      <c r="C154" s="134"/>
+      <c r="A154" s="152"/>
+      <c r="B154" s="183"/>
+      <c r="C154" s="153"/>
       <c r="D154" s="23" t="s">
         <v>60</v>
       </c>
@@ -20464,10 +20472,10 @@
       <c r="CR154" s="70"/>
     </row>
     <row r="155" spans="1:96" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="132"/>
-      <c r="B155" s="133"/>
-      <c r="C155" s="134"/>
-      <c r="D155" s="138" t="s">
+      <c r="A155" s="152"/>
+      <c r="B155" s="183"/>
+      <c r="C155" s="153"/>
+      <c r="D155" s="181" t="s">
         <v>102</v>
       </c>
       <c r="E155" s="16" t="s">
@@ -20568,10 +20576,10 @@
       <c r="CR155" s="70"/>
     </row>
     <row r="156" spans="1:96" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="132"/>
-      <c r="B156" s="133"/>
-      <c r="C156" s="134"/>
-      <c r="D156" s="140"/>
+      <c r="A156" s="152"/>
+      <c r="B156" s="183"/>
+      <c r="C156" s="153"/>
+      <c r="D156" s="182"/>
       <c r="E156" s="16" t="s">
         <v>251</v>
       </c>
@@ -20670,9 +20678,9 @@
       <c r="CR156" s="70"/>
     </row>
     <row r="157" spans="1:96" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="135"/>
-      <c r="B157" s="136"/>
-      <c r="C157" s="137"/>
+      <c r="A157" s="154"/>
+      <c r="B157" s="184"/>
+      <c r="C157" s="155"/>
       <c r="D157" s="23" t="s">
         <v>60</v>
       </c>
@@ -20774,12 +20782,12 @@
       <c r="CR157" s="70"/>
     </row>
     <row r="158" spans="1:96" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="129" t="s">
+      <c r="A158" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="B158" s="130"/>
-      <c r="C158" s="131"/>
-      <c r="D158" s="138" t="s">
+      <c r="B158" s="203"/>
+      <c r="C158" s="151"/>
+      <c r="D158" s="181" t="s">
         <v>60</v>
       </c>
       <c r="E158" s="16" t="s">
@@ -20880,10 +20888,10 @@
       <c r="CR158" s="70"/>
     </row>
     <row r="159" spans="1:96" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="132"/>
-      <c r="B159" s="133"/>
-      <c r="C159" s="134"/>
-      <c r="D159" s="139"/>
+      <c r="A159" s="152"/>
+      <c r="B159" s="183"/>
+      <c r="C159" s="153"/>
+      <c r="D159" s="188"/>
       <c r="E159" s="16" t="s">
         <v>258</v>
       </c>
@@ -20982,10 +20990,10 @@
       <c r="CR159" s="70"/>
     </row>
     <row r="160" spans="1:96" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="132"/>
-      <c r="B160" s="133"/>
-      <c r="C160" s="134"/>
-      <c r="D160" s="139"/>
+      <c r="A160" s="152"/>
+      <c r="B160" s="183"/>
+      <c r="C160" s="153"/>
+      <c r="D160" s="188"/>
       <c r="E160" s="16" t="s">
         <v>260</v>
       </c>
@@ -21084,10 +21092,10 @@
       <c r="CR160" s="70"/>
     </row>
     <row r="161" spans="1:96" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="135"/>
-      <c r="B161" s="136"/>
-      <c r="C161" s="137"/>
-      <c r="D161" s="140"/>
+      <c r="A161" s="154"/>
+      <c r="B161" s="184"/>
+      <c r="C161" s="155"/>
+      <c r="D161" s="182"/>
       <c r="E161" s="16" t="s">
         <v>262</v>
       </c>
@@ -21185,8 +21193,8 @@
       <c r="CQ161" s="70"/>
       <c r="CR161" s="70"/>
     </row>
-    <row r="162" spans="1:96" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="141" t="s">
+    <row r="162" spans="1:96" s="144" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="144" t="s">
         <v>264</v>
       </c>
     </row>
@@ -66566,63 +66574,26 @@
     <row r="1166" spans="6:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="BX5:CR5"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:N6"/>
-    <mergeCell ref="O5:AS5"/>
-    <mergeCell ref="AT5:BW5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:B99"/>
-    <mergeCell ref="C23:C94"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="D61:D73"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="N85:N88"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="J85:J88"/>
-    <mergeCell ref="K85:K88"/>
-    <mergeCell ref="L85:L88"/>
-    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="A162:XFD162"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D24:D37"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A134:C136"/>
+    <mergeCell ref="A137:XFD137"/>
+    <mergeCell ref="A138:C157"/>
+    <mergeCell ref="F138:F142"/>
+    <mergeCell ref="G138:G142"/>
+    <mergeCell ref="H138:H142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="A158:C161"/>
+    <mergeCell ref="D158:D161"/>
     <mergeCell ref="D144:D153"/>
     <mergeCell ref="D155:D156"/>
     <mergeCell ref="A100:XFD100"/>
@@ -66639,26 +66610,63 @@
     <mergeCell ref="M138:M142"/>
     <mergeCell ref="N138:N142"/>
     <mergeCell ref="D138:D143"/>
-    <mergeCell ref="F138:F142"/>
-    <mergeCell ref="G138:G142"/>
-    <mergeCell ref="H138:H142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="A158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="A162:XFD162"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D24:D37"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A134:C136"/>
-    <mergeCell ref="A137:XFD137"/>
-    <mergeCell ref="A138:C157"/>
+    <mergeCell ref="N85:N88"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="J85:J88"/>
+    <mergeCell ref="K85:K88"/>
+    <mergeCell ref="L85:L88"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="A22:B99"/>
+    <mergeCell ref="C23:C94"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="D61:D73"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="BX5:CR5"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:N6"/>
+    <mergeCell ref="O5:AS5"/>
+    <mergeCell ref="AT5:BW5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D24 H24 H29:H33 H35 J24:N36">
@@ -66680,20 +66688,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:D167 H163:N167">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -66734,20 +66742,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:N107 H108 J108:N108">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -66770,20 +66778,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -66824,20 +66832,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -66860,6 +66868,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="361">
       <colorScale>
         <cfvo type="min"/>
@@ -66868,7 +66884,9 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="362">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:M84">
+    <cfRule type="colorScale" priority="404">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -66876,22 +66894,12 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:M84">
     <cfRule type="colorScale" priority="403">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="404">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -66932,6 +66940,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:N53">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -66940,7 +66956,9 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:N73">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -66948,8 +66966,6 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:N73">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -66958,7 +66974,9 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:N83 H83">
+    <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -66966,8 +66984,6 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:N83 H83">
     <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
@@ -66976,24 +66992,8 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="346">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -67016,6 +67016,14 @@
         <cfvo type="max"/>
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -67054,22 +67062,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
@@ -67084,6 +67076,22 @@
         <cfvo type="max"/>
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -67122,22 +67130,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -67152,6 +67144,22 @@
         <cfvo type="max"/>
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -67190,22 +67198,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
@@ -67222,9 +67214,15 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -67232,12 +67230,22 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="465">
